--- a/lrr.xlsx
+++ b/lrr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="475"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="475"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10168,9 +10168,6 @@
     <t>1st Floor, CRN Square,, No 15, Kasturba Rd, Shanthala Nagar, Ashok Nagar</t>
   </si>
   <si>
-    <t>080 4070 0602</t>
-  </si>
-  <si>
     <t>235</t>
   </si>
   <si>
@@ -10322,13 +10319,16 @@
   </si>
   <si>
     <t xml:space="preserve">contact IT </t>
+  </si>
+  <si>
+    <t>080 4070 0608</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10470,8 +10470,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF660033"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="45">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10723,6 +10730,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -10884,7 +10903,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10900,6 +10919,9 @@
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -11262,15 +11284,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N704"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
-      <selection activeCell="A696" sqref="A696:XFD696"/>
+    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="A489" sqref="A489:XFD489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
@@ -11317,13 +11339,13 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>3413</v>
+      </c>
+      <c r="M1" t="s">
         <v>3414</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>3415</v>
-      </c>
-      <c r="N1" t="s">
-        <v>3416</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -11673,146 +11695,146 @@
         <v>87</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>3418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="8" t="s">
         <v>114</v>
       </c>
     </row>
@@ -13006,38 +13028,38 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="E50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="8" t="s">
         <v>318</v>
       </c>
     </row>
@@ -13076,38 +13098,38 @@
         <v>324</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="E52" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="E52" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="11" t="s">
         <v>318</v>
       </c>
     </row>
@@ -14651,213 +14673,213 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="E97" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" t="s">
+      <c r="E97" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="G97" t="s">
-        <v>34</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="G97" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H97" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="J97" t="s">
+      <c r="J97" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="K97" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="K97" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="E98" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="E98" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="G98" t="s">
-        <v>34</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="G98" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="K98" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="K98" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="E99" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" t="s">
+      <c r="E99" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="G99" t="s">
-        <v>34</v>
-      </c>
-      <c r="H99" t="s">
+      <c r="G99" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H99" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J99" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="K99" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="K99" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="E100" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="E100" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G100" t="s">
-        <v>34</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="G100" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H100" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="J100" t="s">
+      <c r="J100" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="K100" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="K100" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="E101" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G101" t="s">
-        <v>34</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="G101" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H101" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J101" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="K101" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="K101" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="E102" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" t="s">
+      <c r="E102" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G102" t="s">
-        <v>34</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="G102" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H102" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K102" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -17661,108 +17683,108 @@
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="183" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="E183" t="s">
-        <v>13</v>
-      </c>
-      <c r="F183" t="s">
+      <c r="E183" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G183" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H183" t="s">
+      <c r="H183" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I183" t="s">
+      <c r="I183" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="J183" t="s">
+      <c r="J183" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="K183" t="s">
+      <c r="K183" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="184" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="E184" t="s">
-        <v>13</v>
-      </c>
-      <c r="F184" t="s">
+      <c r="E184" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G184" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="H184" t="s">
+      <c r="H184" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="I184" t="s">
+      <c r="I184" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="J184" t="s">
+      <c r="J184" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="K184" t="s">
+      <c r="K184" s="3" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+    <row r="185" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="11" t="s">
         <v>1081</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="11" t="s">
         <v>1082</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="11" t="s">
         <v>1083</v>
       </c>
-      <c r="E185" t="s">
-        <v>13</v>
-      </c>
-      <c r="F185" t="s">
+      <c r="E185" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" s="11" t="s">
         <v>1084</v>
       </c>
-      <c r="G185" t="s">
-        <v>34</v>
-      </c>
-      <c r="H185" t="s">
+      <c r="G185" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H185" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I185" t="s">
+      <c r="I185" s="11" t="s">
         <v>1085</v>
       </c>
-      <c r="J185" t="s">
+      <c r="J185" s="11" t="s">
         <v>1086</v>
       </c>
-      <c r="K185" t="s">
+      <c r="K185" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -17801,248 +17823,248 @@
         <v>34</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="187" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="11" t="s">
         <v>1093</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="11" t="s">
         <v>1095</v>
       </c>
-      <c r="E187" t="s">
-        <v>13</v>
-      </c>
-      <c r="F187" t="s">
+      <c r="E187" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F187" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="G187" t="s">
-        <v>34</v>
-      </c>
-      <c r="H187" t="s">
+      <c r="G187" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H187" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I187" t="s">
+      <c r="I187" s="11" t="s">
         <v>1095</v>
       </c>
-      <c r="J187" t="s">
+      <c r="J187" s="11" t="s">
         <v>1096</v>
       </c>
-      <c r="K187" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="K187" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="11" t="s">
         <v>1097</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="11" t="s">
         <v>1098</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="E188" t="s">
-        <v>13</v>
-      </c>
-      <c r="F188" t="s">
+      <c r="E188" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F188" s="11" t="s">
         <v>1100</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G188" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="H188" t="s">
+      <c r="H188" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I188" t="s">
+      <c r="I188" s="11" t="s">
         <v>1101</v>
       </c>
-      <c r="J188" t="s">
+      <c r="J188" s="11" t="s">
         <v>1102</v>
       </c>
-      <c r="K188" t="s">
+      <c r="K188" s="11" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+    <row r="189" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="E189" t="s">
-        <v>13</v>
-      </c>
-      <c r="F189" t="s">
+      <c r="E189" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G189" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="H189" t="s">
+      <c r="H189" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I189" t="s">
+      <c r="I189" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="J189" t="s">
+      <c r="J189" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="K189" t="s">
+      <c r="K189" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+    <row r="190" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="E190" t="s">
-        <v>13</v>
-      </c>
-      <c r="F190" t="s">
+      <c r="E190" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G190" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="H190" t="s">
+      <c r="H190" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="I190" t="s">
+      <c r="I190" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="J190" t="s">
+      <c r="J190" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="K190" t="s">
+      <c r="K190" s="3" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="191" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="11" t="s">
         <v>1115</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="11" t="s">
         <v>1116</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="11" t="s">
         <v>1117</v>
       </c>
-      <c r="E191" t="s">
-        <v>13</v>
-      </c>
-      <c r="F191" t="s">
+      <c r="E191" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" s="11" t="s">
         <v>1118</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H191" t="s">
+      <c r="H191" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I191" t="s">
+      <c r="I191" s="11" t="s">
         <v>1117</v>
       </c>
-      <c r="J191" t="s">
+      <c r="J191" s="11" t="s">
         <v>1119</v>
       </c>
-      <c r="K191" t="s">
+      <c r="K191" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="192" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="E192" t="s">
-        <v>13</v>
-      </c>
-      <c r="F192" t="s">
+      <c r="E192" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" s="3" t="s">
         <v>948</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G192" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="H192" t="s">
+      <c r="H192" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I192" t="s">
+      <c r="I192" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="J192" t="s">
+      <c r="J192" s="3" t="s">
         <v>1123</v>
       </c>
-      <c r="K192" t="s">
+      <c r="K192" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="193" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="E193" t="s">
-        <v>13</v>
-      </c>
-      <c r="F193" t="s">
+      <c r="E193" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="H193" t="s">
+      <c r="H193" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I193" t="s">
+      <c r="I193" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="J193" t="s">
+      <c r="J193" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="K193" t="s">
+      <c r="K193" s="3" t="s">
         <v>318</v>
       </c>
     </row>
@@ -18186,283 +18208,283 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+    <row r="198" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="11" t="s">
         <v>1151</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="11" t="s">
         <v>1152</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="E198" t="s">
-        <v>13</v>
-      </c>
-      <c r="F198" t="s">
+      <c r="E198" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" s="11" t="s">
         <v>1154</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G198" s="11" t="s">
         <v>1155</v>
       </c>
-      <c r="H198" t="s">
+      <c r="H198" s="11" t="s">
         <v>1156</v>
       </c>
-      <c r="I198" t="s">
+      <c r="I198" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="J198" t="s">
+      <c r="J198" s="11" t="s">
         <v>1157</v>
       </c>
-      <c r="K198" t="s">
+      <c r="K198" s="11" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+    <row r="199" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="11" t="s">
         <v>1158</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="11" t="s">
         <v>1159</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="11" t="s">
         <v>1160</v>
       </c>
-      <c r="E199" t="s">
-        <v>13</v>
-      </c>
-      <c r="F199" t="s">
+      <c r="E199" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" s="11" t="s">
         <v>1161</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G199" s="11" t="s">
         <v>1162</v>
       </c>
-      <c r="H199" t="s">
+      <c r="H199" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I199" t="s">
+      <c r="I199" s="11" t="s">
         <v>1160</v>
       </c>
-      <c r="J199" t="s">
+      <c r="J199" s="11" t="s">
         <v>1163</v>
       </c>
-      <c r="K199" t="s">
+      <c r="K199" s="11" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+    <row r="200" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="11" t="s">
         <v>1164</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="11" t="s">
         <v>1165</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="11" t="s">
         <v>1160</v>
       </c>
-      <c r="E200" t="s">
-        <v>13</v>
-      </c>
-      <c r="F200" t="s">
+      <c r="E200" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F200" s="11" t="s">
         <v>1166</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G200" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="H200" t="s">
+      <c r="H200" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I200" t="s">
+      <c r="I200" s="11" t="s">
         <v>1160</v>
       </c>
-      <c r="J200" t="s">
+      <c r="J200" s="11" t="s">
         <v>1167</v>
       </c>
-      <c r="K200" t="s">
+      <c r="K200" s="11" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+    <row r="201" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="E201" t="s">
-        <v>13</v>
-      </c>
-      <c r="F201" t="s">
+      <c r="E201" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201" s="3" t="s">
         <v>1171</v>
       </c>
-      <c r="G201" t="s">
-        <v>34</v>
-      </c>
-      <c r="H201" t="s">
+      <c r="G201" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H201" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I201" t="s">
+      <c r="I201" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="J201" t="s">
+      <c r="J201" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="K201" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="K201" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="17" t="s">
         <v>1173</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="17" t="s">
         <v>1174</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="17" t="s">
         <v>1175</v>
       </c>
-      <c r="E202" t="s">
-        <v>13</v>
-      </c>
-      <c r="F202" t="s">
+      <c r="E202" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F202" s="17" t="s">
         <v>1176</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G202" s="17" t="s">
         <v>1177</v>
       </c>
-      <c r="H202" t="s">
+      <c r="H202" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I202" t="s">
+      <c r="I202" s="17" t="s">
         <v>1175</v>
       </c>
-      <c r="J202" t="s">
+      <c r="J202" s="17" t="s">
         <v>1178</v>
       </c>
-      <c r="K202" t="s">
+      <c r="K202" s="17" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+    <row r="203" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="17" t="s">
         <v>1179</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="17" t="s">
         <v>1180</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="17" t="s">
         <v>1181</v>
       </c>
-      <c r="E203" t="s">
-        <v>13</v>
-      </c>
-      <c r="F203" t="s">
+      <c r="E203" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F203" s="17" t="s">
         <v>1182</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G203" s="17" t="s">
         <v>890</v>
       </c>
-      <c r="H203" t="s">
+      <c r="H203" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I203" t="s">
+      <c r="I203" s="17" t="s">
         <v>1181</v>
       </c>
-      <c r="J203" t="s">
+      <c r="J203" s="17" t="s">
         <v>1183</v>
       </c>
-      <c r="K203" t="s">
+      <c r="K203" s="17" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+    <row r="204" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="17" t="s">
         <v>1184</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="17" t="s">
         <v>1185</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="17" t="s">
         <v>1186</v>
       </c>
-      <c r="E204" t="s">
-        <v>13</v>
-      </c>
-      <c r="F204" t="s">
+      <c r="E204" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F204" s="17" t="s">
         <v>1187</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G204" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="H204" t="s">
+      <c r="H204" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I204" t="s">
+      <c r="I204" s="17" t="s">
         <v>1188</v>
       </c>
-      <c r="J204" t="s">
+      <c r="J204" s="17" t="s">
         <v>1189</v>
       </c>
-      <c r="K204" t="s">
+      <c r="K204" s="17" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+    <row r="205" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="11" t="s">
         <v>1190</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="11" t="s">
         <v>1191</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="11" t="s">
         <v>1192</v>
       </c>
-      <c r="E205" t="s">
-        <v>13</v>
-      </c>
-      <c r="F205" t="s">
+      <c r="E205" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F205" s="11" t="s">
         <v>1193</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G205" s="11" t="s">
         <v>1195</v>
       </c>
-      <c r="H205" t="s">
+      <c r="H205" s="11" t="s">
         <v>1196</v>
       </c>
-      <c r="I205" t="s">
+      <c r="I205" s="11" t="s">
         <v>1197</v>
       </c>
-      <c r="J205" t="s">
+      <c r="J205" s="11" t="s">
         <v>1198</v>
       </c>
-      <c r="K205" t="s">
+      <c r="K205" s="11" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -18501,73 +18523,73 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+    <row r="207" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="17" t="s">
         <v>1206</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="17" t="s">
         <v>1207</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="17" t="s">
         <v>1208</v>
       </c>
-      <c r="E207" t="s">
-        <v>13</v>
-      </c>
-      <c r="F207" t="s">
+      <c r="E207" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F207" s="17" t="s">
         <v>1209</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G207" s="17" t="s">
         <v>1210</v>
       </c>
-      <c r="H207" t="s">
+      <c r="H207" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I207" t="s">
+      <c r="I207" s="17" t="s">
         <v>1208</v>
       </c>
-      <c r="J207" t="s">
+      <c r="J207" s="17" t="s">
         <v>1211</v>
       </c>
-      <c r="K207" t="s">
+      <c r="K207" s="17" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+    <row r="208" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="11" t="s">
         <v>1212</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="11" t="s">
         <v>1213</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="11" t="s">
         <v>1214</v>
       </c>
-      <c r="E208" t="s">
-        <v>13</v>
-      </c>
-      <c r="F208" t="s">
+      <c r="E208" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F208" s="11" t="s">
         <v>1215</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G208" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H208" t="s">
+      <c r="H208" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I208" t="s">
+      <c r="I208" s="11" t="s">
         <v>1214</v>
       </c>
-      <c r="J208" t="s">
+      <c r="J208" s="11" t="s">
         <v>1216</v>
       </c>
-      <c r="K208" t="s">
+      <c r="K208" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -18606,108 +18628,108 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+    <row r="210" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="8" t="s">
         <v>1222</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="8" t="s">
         <v>1223</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="8" t="s">
         <v>1224</v>
       </c>
-      <c r="E210" t="s">
-        <v>13</v>
-      </c>
-      <c r="F210" t="s">
+      <c r="E210" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F210" s="8" t="s">
         <v>1225</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G210" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H210" t="s">
+      <c r="H210" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="I210" t="s">
+      <c r="I210" s="8" t="s">
         <v>1224</v>
       </c>
-      <c r="J210" t="s">
+      <c r="J210" s="8" t="s">
         <v>1226</v>
       </c>
-      <c r="K210" t="s">
+      <c r="K210" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+    <row r="211" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="8" t="s">
         <v>1227</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="8" t="s">
         <v>1228</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="8" t="s">
         <v>1229</v>
       </c>
-      <c r="E211" t="s">
-        <v>13</v>
-      </c>
-      <c r="F211" t="s">
+      <c r="E211" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F211" s="8" t="s">
         <v>1230</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G211" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H211" t="s">
+      <c r="H211" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="I211" t="s">
+      <c r="I211" s="8" t="s">
         <v>1229</v>
       </c>
-      <c r="J211" t="s">
+      <c r="J211" s="8" t="s">
         <v>1231</v>
       </c>
-      <c r="K211" t="s">
+      <c r="K211" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+    <row r="212" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="17" t="s">
         <v>1232</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="17" t="s">
         <v>1233</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="17" t="s">
         <v>1234</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="17" t="s">
         <v>1235</v>
       </c>
-      <c r="E212" t="s">
-        <v>13</v>
-      </c>
-      <c r="F212" t="s">
+      <c r="E212" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F212" s="17" t="s">
         <v>1236</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G212" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H212" t="s">
+      <c r="H212" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="I212" t="s">
+      <c r="I212" s="17" t="s">
         <v>1235</v>
       </c>
-      <c r="J212" t="s">
+      <c r="J212" s="17" t="s">
         <v>1237</v>
       </c>
-      <c r="K212" t="s">
+      <c r="K212" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -18921,38 +18943,38 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+    <row r="219" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="11" t="s">
         <v>1276</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="11" t="s">
         <v>1277</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="11" t="s">
         <v>1278</v>
       </c>
-      <c r="E219" t="s">
-        <v>13</v>
-      </c>
-      <c r="F219" t="s">
+      <c r="E219" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F219" s="11" t="s">
         <v>1279</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G219" s="11" t="s">
         <v>1280</v>
       </c>
-      <c r="H219" t="s">
+      <c r="H219" s="11" t="s">
         <v>1281</v>
       </c>
-      <c r="I219" t="s">
+      <c r="I219" s="11" t="s">
         <v>1282</v>
       </c>
-      <c r="J219" t="s">
+      <c r="J219" s="11" t="s">
         <v>1283</v>
       </c>
-      <c r="K219" t="s">
+      <c r="K219" s="11" t="s">
         <v>1280</v>
       </c>
     </row>
@@ -18991,73 +19013,73 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+    <row r="221" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="17" t="s">
         <v>1290</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="17" t="s">
         <v>1291</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="17" t="s">
         <v>1292</v>
       </c>
-      <c r="E221" t="s">
-        <v>13</v>
-      </c>
-      <c r="F221" t="s">
+      <c r="E221" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F221" s="17" t="s">
         <v>1293</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G221" s="17" t="s">
         <v>1294</v>
       </c>
-      <c r="H221" t="s">
+      <c r="H221" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I221" t="s">
+      <c r="I221" s="17" t="s">
         <v>1292</v>
       </c>
-      <c r="J221" t="s">
+      <c r="J221" s="17" t="s">
         <v>1295</v>
       </c>
-      <c r="K221" t="s">
+      <c r="K221" s="17" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+    <row r="222" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="11" t="s">
         <v>1296</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="11" t="s">
         <v>1297</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="11" t="s">
         <v>1298</v>
       </c>
-      <c r="E222" t="s">
-        <v>13</v>
-      </c>
-      <c r="F222" t="s">
+      <c r="E222" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F222" s="11" t="s">
         <v>1299</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G222" s="11" t="s">
         <v>1300</v>
       </c>
-      <c r="H222" t="s">
+      <c r="H222" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I222" t="s">
+      <c r="I222" s="11" t="s">
         <v>1301</v>
       </c>
-      <c r="J222" t="s">
+      <c r="J222" s="11" t="s">
         <v>1302</v>
       </c>
-      <c r="K222" t="s">
+      <c r="K222" s="11" t="s">
         <v>1300</v>
       </c>
     </row>
@@ -19236,38 +19258,38 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+    <row r="228" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="11" t="s">
         <v>1330</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="11" t="s">
         <v>1331</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="11" t="s">
         <v>1332</v>
       </c>
-      <c r="E228" t="s">
-        <v>13</v>
-      </c>
-      <c r="F228" t="s">
+      <c r="E228" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F228" s="11" t="s">
         <v>1333</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G228" s="11" t="s">
         <v>1334</v>
       </c>
-      <c r="H228" t="s">
+      <c r="H228" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I228" t="s">
+      <c r="I228" s="11" t="s">
         <v>1332</v>
       </c>
-      <c r="J228" t="s">
+      <c r="J228" s="11" t="s">
         <v>1335</v>
       </c>
-      <c r="K228" t="s">
+      <c r="K228" s="11" t="s">
         <v>1334</v>
       </c>
     </row>
@@ -19306,108 +19328,108 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+    <row r="230" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
         <v>1342</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="3" t="s">
         <v>1343</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="3" t="s">
         <v>1344</v>
       </c>
-      <c r="E230" t="s">
-        <v>13</v>
-      </c>
-      <c r="F230" t="s">
+      <c r="E230" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F230" s="3" t="s">
         <v>1345</v>
       </c>
-      <c r="G230" t="s">
+      <c r="G230" s="3" t="s">
         <v>1346</v>
       </c>
-      <c r="H230" t="s">
+      <c r="H230" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="I230" t="s">
+      <c r="I230" s="3" t="s">
         <v>1344</v>
       </c>
-      <c r="J230" t="s">
+      <c r="J230" s="3" t="s">
         <v>1347</v>
       </c>
-      <c r="K230" t="s">
+      <c r="K230" s="3" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
+    <row r="231" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="8" t="s">
         <v>1348</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="8" t="s">
         <v>1349</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="8" t="s">
         <v>1350</v>
       </c>
-      <c r="E231" t="s">
-        <v>13</v>
-      </c>
-      <c r="F231" t="s">
+      <c r="E231" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F231" s="8" t="s">
         <v>1351</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G231" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H231" t="s">
+      <c r="H231" s="8" t="s">
         <v>1352</v>
       </c>
-      <c r="I231" t="s">
+      <c r="I231" s="8" t="s">
         <v>1350</v>
       </c>
-      <c r="J231" t="s">
+      <c r="J231" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="K231" t="s">
+      <c r="K231" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+    <row r="232" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
         <v>1353</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="3" t="s">
         <v>1354</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="3" t="s">
         <v>1355</v>
       </c>
-      <c r="E232" t="s">
-        <v>13</v>
-      </c>
-      <c r="F232" t="s">
+      <c r="E232" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F232" s="3" t="s">
         <v>1356</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G232" s="3" t="s">
         <v>1340</v>
       </c>
-      <c r="H232" t="s">
+      <c r="H232" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I232" t="s">
+      <c r="I232" s="3" t="s">
         <v>1357</v>
       </c>
-      <c r="J232" t="s">
+      <c r="J232" s="3" t="s">
         <v>1358</v>
       </c>
-      <c r="K232" t="s">
+      <c r="K232" s="3" t="s">
         <v>1340</v>
       </c>
     </row>
@@ -19446,38 +19468,38 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+    <row r="234" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
         <v>1364</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="3" t="s">
         <v>1365</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="E234" t="s">
-        <v>13</v>
-      </c>
-      <c r="F234" t="s">
+      <c r="E234" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F234" s="3" t="s">
         <v>1367</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G234" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="H234" t="s">
+      <c r="H234" s="3" t="s">
         <v>1368</v>
       </c>
-      <c r="I234" t="s">
+      <c r="I234" s="3" t="s">
         <v>1366</v>
       </c>
-      <c r="J234" t="s">
+      <c r="J234" s="3" t="s">
         <v>1369</v>
       </c>
-      <c r="K234" t="s">
+      <c r="K234" s="3" t="s">
         <v>289</v>
       </c>
     </row>
@@ -20076,38 +20098,38 @@
         <v>289</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+    <row r="252" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="17" t="s">
         <v>1471</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="17" t="s">
         <v>1472</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="17" t="s">
         <v>1473</v>
       </c>
-      <c r="E252" t="s">
-        <v>13</v>
-      </c>
-      <c r="F252" t="s">
+      <c r="E252" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F252" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="G252" t="s">
-        <v>34</v>
-      </c>
-      <c r="H252" t="s">
+      <c r="G252" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H252" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="I252" t="s">
+      <c r="I252" s="17" t="s">
         <v>1474</v>
       </c>
-      <c r="J252" t="s">
+      <c r="J252" s="17" t="s">
         <v>1475</v>
       </c>
-      <c r="K252" t="s">
+      <c r="K252" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -20146,38 +20168,38 @@
         <v>34</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+    <row r="254" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="17" t="s">
         <v>1481</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="17" t="s">
         <v>1482</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="17" t="s">
         <v>1483</v>
       </c>
-      <c r="E254" t="s">
-        <v>13</v>
-      </c>
-      <c r="F254" t="s">
+      <c r="E254" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F254" s="17" t="s">
         <v>1484</v>
       </c>
-      <c r="G254" t="s">
-        <v>34</v>
-      </c>
-      <c r="H254" t="s">
+      <c r="G254" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H254" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="I254" t="s">
+      <c r="I254" s="17" t="s">
         <v>1485</v>
       </c>
-      <c r="J254" t="s">
+      <c r="J254" s="17" t="s">
         <v>1486</v>
       </c>
-      <c r="K254" t="s">
+      <c r="K254" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -20251,108 +20273,108 @@
         <v>551</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+    <row r="257" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="11" t="s">
         <v>1499</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="11" t="s">
         <v>1500</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="11" t="s">
         <v>1501</v>
       </c>
-      <c r="E257" t="s">
-        <v>13</v>
-      </c>
-      <c r="F257" t="s">
+      <c r="E257" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F257" s="11" t="s">
         <v>1502</v>
       </c>
-      <c r="G257" t="s">
+      <c r="G257" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="H257" t="s">
+      <c r="H257" s="11" t="s">
         <v>1503</v>
       </c>
-      <c r="I257" t="s">
+      <c r="I257" s="11" t="s">
         <v>1501</v>
       </c>
-      <c r="J257" t="s">
+      <c r="J257" s="11" t="s">
         <v>1504</v>
       </c>
-      <c r="K257" t="s">
+      <c r="K257" s="11" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+    <row r="258" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="8" t="s">
         <v>1505</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="8" t="s">
         <v>1506</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="8" t="s">
         <v>1507</v>
       </c>
-      <c r="E258" t="s">
-        <v>13</v>
-      </c>
-      <c r="F258" t="s">
+      <c r="E258" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F258" s="8" t="s">
         <v>1508</v>
       </c>
-      <c r="G258" t="s">
+      <c r="G258" s="8" t="s">
         <v>1509</v>
       </c>
-      <c r="H258" t="s">
+      <c r="H258" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I258" t="s">
+      <c r="I258" s="8" t="s">
         <v>1507</v>
       </c>
-      <c r="J258" t="s">
+      <c r="J258" s="8" t="s">
         <v>1510</v>
       </c>
-      <c r="K258" t="s">
+      <c r="K258" s="8" t="s">
         <v>1509</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+    <row r="259" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="11" t="s">
         <v>1511</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="11" t="s">
         <v>1512</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="11" t="s">
         <v>1513</v>
       </c>
-      <c r="E259" t="s">
-        <v>13</v>
-      </c>
-      <c r="F259" t="s">
+      <c r="E259" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F259" s="11" t="s">
         <v>1514</v>
       </c>
-      <c r="G259" t="s">
+      <c r="G259" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H259" t="s">
+      <c r="H259" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I259" t="s">
+      <c r="I259" s="11" t="s">
         <v>1513</v>
       </c>
-      <c r="J259" t="s">
+      <c r="J259" s="11" t="s">
         <v>1515</v>
       </c>
-      <c r="K259" t="s">
+      <c r="K259" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -20391,73 +20413,73 @@
         <v>785</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+    <row r="261" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="11" t="s">
         <v>1521</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="11" t="s">
         <v>1522</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="11" t="s">
         <v>960</v>
       </c>
-      <c r="E261" t="s">
-        <v>13</v>
-      </c>
-      <c r="F261" t="s">
+      <c r="E261" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F261" s="11" t="s">
         <v>1523</v>
       </c>
-      <c r="G261" t="s">
+      <c r="G261" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H261" t="s">
+      <c r="H261" s="11" t="s">
         <v>1524</v>
       </c>
-      <c r="I261" t="s">
+      <c r="I261" s="11" t="s">
         <v>960</v>
       </c>
-      <c r="J261" t="s">
+      <c r="J261" s="11" t="s">
         <v>1525</v>
       </c>
-      <c r="K261" t="s">
+      <c r="K261" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+    <row r="262" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
         <v>1526</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="3" t="s">
         <v>1527</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="3" t="s">
         <v>1528</v>
       </c>
-      <c r="E262" t="s">
-        <v>13</v>
-      </c>
-      <c r="F262" t="s">
+      <c r="E262" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F262" s="3" t="s">
         <v>1529</v>
       </c>
-      <c r="G262" t="s">
+      <c r="G262" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="H262" t="s">
+      <c r="H262" s="3" t="s">
         <v>1530</v>
       </c>
-      <c r="I262" t="s">
+      <c r="I262" s="3" t="s">
         <v>1528</v>
       </c>
-      <c r="J262" t="s">
+      <c r="J262" s="3" t="s">
         <v>1531</v>
       </c>
-      <c r="K262" t="s">
+      <c r="K262" s="3" t="s">
         <v>318</v>
       </c>
     </row>
@@ -20496,38 +20518,38 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
+    <row r="264" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="17" t="s">
         <v>1538</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="17" t="s">
         <v>1539</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="17" t="s">
         <v>1540</v>
       </c>
-      <c r="E264" t="s">
-        <v>13</v>
-      </c>
-      <c r="F264" t="s">
+      <c r="E264" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F264" s="17" t="s">
         <v>1541</v>
       </c>
-      <c r="G264" t="s">
+      <c r="G264" s="17" t="s">
         <v>1430</v>
       </c>
-      <c r="H264" t="s">
+      <c r="H264" s="17" t="s">
         <v>1542</v>
       </c>
-      <c r="I264" t="s">
+      <c r="I264" s="17" t="s">
         <v>1540</v>
       </c>
-      <c r="J264" t="s">
+      <c r="J264" s="17" t="s">
         <v>1543</v>
       </c>
-      <c r="K264" t="s">
+      <c r="K264" s="17" t="s">
         <v>1430</v>
       </c>
     </row>
@@ -20601,178 +20623,178 @@
         <v>34</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+    <row r="267" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="17" t="s">
         <v>1554</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="17" t="s">
         <v>1555</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="17" t="s">
         <v>1556</v>
       </c>
-      <c r="E267" t="s">
-        <v>13</v>
-      </c>
-      <c r="F267" t="s">
+      <c r="E267" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F267" s="17" t="s">
         <v>1557</v>
       </c>
-      <c r="G267" t="s">
+      <c r="G267" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="H267" t="s">
+      <c r="H267" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I267" t="s">
+      <c r="I267" s="17" t="s">
         <v>1556</v>
       </c>
-      <c r="J267" t="s">
+      <c r="J267" s="17" t="s">
         <v>1558</v>
       </c>
-      <c r="K267" t="s">
+      <c r="K267" s="17" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+    <row r="268" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="17" t="s">
         <v>1559</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="17" t="s">
         <v>1560</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="17" t="s">
         <v>1404</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="17" t="s">
         <v>1561</v>
       </c>
-      <c r="E268" t="s">
-        <v>13</v>
-      </c>
-      <c r="F268" t="s">
+      <c r="E268" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F268" s="17" t="s">
         <v>1562</v>
       </c>
-      <c r="G268" t="s">
+      <c r="G268" s="17" t="s">
         <v>1563</v>
       </c>
-      <c r="H268" t="s">
+      <c r="H268" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I268" t="s">
+      <c r="I268" s="17" t="s">
         <v>1564</v>
       </c>
-      <c r="J268" t="s">
+      <c r="J268" s="17" t="s">
         <v>1565</v>
       </c>
-      <c r="K268" t="s">
+      <c r="K268" s="17" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+    <row r="269" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="17" t="s">
         <v>1566</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="17" t="s">
         <v>1567</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="17" t="s">
         <v>1568</v>
       </c>
-      <c r="E269" t="s">
-        <v>13</v>
-      </c>
-      <c r="F269" t="s">
+      <c r="E269" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F269" s="17" t="s">
         <v>1569</v>
       </c>
-      <c r="G269" t="s">
+      <c r="G269" s="17" t="s">
         <v>1570</v>
       </c>
-      <c r="H269" t="s">
+      <c r="H269" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I269" t="s">
+      <c r="I269" s="17" t="s">
         <v>1568</v>
       </c>
-      <c r="J269" t="s">
+      <c r="J269" s="17" t="s">
         <v>1571</v>
       </c>
-      <c r="K269" t="s">
+      <c r="K269" s="17" t="s">
         <v>1570</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+    <row r="270" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="17" t="s">
         <v>1572</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="17" t="s">
         <v>1573</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="17" t="s">
         <v>1574</v>
       </c>
-      <c r="E270" t="s">
-        <v>13</v>
-      </c>
-      <c r="F270" t="s">
+      <c r="E270" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F270" s="17" t="s">
         <v>1575</v>
       </c>
-      <c r="G270" t="s">
+      <c r="G270" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="H270" t="s">
+      <c r="H270" s="17" t="s">
         <v>1576</v>
       </c>
-      <c r="I270" t="s">
+      <c r="I270" s="17" t="s">
         <v>1574</v>
       </c>
-      <c r="J270" t="s">
+      <c r="J270" s="17" t="s">
         <v>1577</v>
       </c>
-      <c r="K270" t="s">
+      <c r="K270" s="17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+    <row r="271" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="11" t="s">
         <v>1578</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="11" t="s">
         <v>1579</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="11" t="s">
         <v>1580</v>
       </c>
-      <c r="E271" t="s">
-        <v>13</v>
-      </c>
-      <c r="F271" t="s">
+      <c r="E271" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F271" s="11" t="s">
         <v>1581</v>
       </c>
-      <c r="G271" t="s">
+      <c r="G271" s="11" t="s">
         <v>1582</v>
       </c>
-      <c r="H271" t="s">
+      <c r="H271" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I271" t="s">
+      <c r="I271" s="11" t="s">
         <v>1580</v>
       </c>
-      <c r="J271" t="s">
+      <c r="J271" s="11" t="s">
         <v>1583</v>
       </c>
-      <c r="K271" t="s">
+      <c r="K271" s="11" t="s">
         <v>1582</v>
       </c>
     </row>
@@ -20811,143 +20833,143 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
+    <row r="273" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="11" t="s">
         <v>1590</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="11" t="s">
         <v>1591</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="11" t="s">
         <v>1592</v>
       </c>
-      <c r="E273" t="s">
-        <v>13</v>
-      </c>
-      <c r="F273" t="s">
+      <c r="E273" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F273" s="11" t="s">
         <v>1593</v>
       </c>
-      <c r="G273" t="s">
+      <c r="G273" s="11" t="s">
         <v>1594</v>
       </c>
-      <c r="H273" t="s">
+      <c r="H273" s="11" t="s">
         <v>1576</v>
       </c>
-      <c r="I273" t="s">
+      <c r="I273" s="11" t="s">
         <v>1592</v>
       </c>
-      <c r="J273" t="s">
+      <c r="J273" s="11" t="s">
         <v>1595</v>
       </c>
-      <c r="K273" t="s">
+      <c r="K273" s="11" t="s">
         <v>1594</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+    <row r="274" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="11" t="s">
         <v>1597</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="11" t="s">
         <v>1598</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="11" t="s">
         <v>1599</v>
       </c>
-      <c r="E274" t="s">
-        <v>13</v>
-      </c>
-      <c r="F274" t="s">
+      <c r="E274" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F274" s="11" t="s">
         <v>1600</v>
       </c>
-      <c r="G274" t="s">
-        <v>34</v>
-      </c>
-      <c r="H274" t="s">
+      <c r="G274" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H274" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I274" t="s">
+      <c r="I274" s="11" t="s">
         <v>1599</v>
       </c>
-      <c r="J274" t="s">
+      <c r="J274" s="11" t="s">
         <v>1601</v>
       </c>
-      <c r="K274" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="K274" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="11" t="s">
         <v>1602</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="11" t="s">
         <v>1603</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="11" t="s">
         <v>1604</v>
       </c>
-      <c r="E275" t="s">
-        <v>13</v>
-      </c>
-      <c r="F275" t="s">
+      <c r="E275" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F275" s="11" t="s">
         <v>1605</v>
       </c>
-      <c r="G275" t="s">
-        <v>34</v>
-      </c>
-      <c r="H275" t="s">
+      <c r="G275" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H275" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I275" t="s">
+      <c r="I275" s="11" t="s">
         <v>1604</v>
       </c>
-      <c r="J275" t="s">
+      <c r="J275" s="11" t="s">
         <v>1606</v>
       </c>
-      <c r="K275" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
+      <c r="K275" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="11" t="s">
         <v>1607</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="11" t="s">
         <v>1608</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="11" t="s">
         <v>1609</v>
       </c>
-      <c r="E276" t="s">
-        <v>13</v>
-      </c>
-      <c r="F276" t="s">
+      <c r="E276" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F276" s="11" t="s">
         <v>1610</v>
       </c>
-      <c r="G276" t="s">
-        <v>34</v>
-      </c>
-      <c r="H276" t="s">
+      <c r="G276" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H276" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I276" t="s">
+      <c r="I276" s="11" t="s">
         <v>1609</v>
       </c>
-      <c r="J276" t="s">
+      <c r="J276" s="11" t="s">
         <v>1611</v>
       </c>
-      <c r="K276" t="s">
+      <c r="K276" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -21301,73 +21323,73 @@
         <v>34</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+    <row r="287" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="17" t="s">
         <v>1662</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="17" t="s">
         <v>1663</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="17" t="s">
         <v>1664</v>
       </c>
-      <c r="E287" t="s">
-        <v>13</v>
-      </c>
-      <c r="F287" t="s">
+      <c r="E287" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F287" s="17" t="s">
         <v>1665</v>
       </c>
-      <c r="G287" t="s">
+      <c r="G287" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="H287" t="s">
+      <c r="H287" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I287" t="s">
+      <c r="I287" s="17" t="s">
         <v>1664</v>
       </c>
-      <c r="J287" t="s">
+      <c r="J287" s="17" t="s">
         <v>1666</v>
       </c>
-      <c r="K287" t="s">
+      <c r="K287" s="17" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
+    <row r="288" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="17" t="s">
         <v>1667</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="17" t="s">
         <v>1668</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C288" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288" s="17" t="s">
         <v>1669</v>
       </c>
-      <c r="E288" t="s">
-        <v>13</v>
-      </c>
-      <c r="F288" t="s">
+      <c r="E288" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F288" s="17" t="s">
         <v>1670</v>
       </c>
-      <c r="G288" t="s">
+      <c r="G288" s="17" t="s">
         <v>1340</v>
       </c>
-      <c r="H288" t="s">
+      <c r="H288" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I288" t="s">
+      <c r="I288" s="17" t="s">
         <v>1671</v>
       </c>
-      <c r="J288" t="s">
+      <c r="J288" s="17" t="s">
         <v>1672</v>
       </c>
-      <c r="K288" t="s">
+      <c r="K288" s="17" t="s">
         <v>1340</v>
       </c>
     </row>
@@ -21791,38 +21813,38 @@
         <v>289</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+    <row r="301" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="17" t="s">
         <v>1732</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="17" t="s">
         <v>1733</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C301" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="17" t="s">
         <v>1734</v>
       </c>
-      <c r="E301" t="s">
-        <v>13</v>
-      </c>
-      <c r="F301" t="s">
+      <c r="E301" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F301" s="17" t="s">
         <v>1735</v>
       </c>
-      <c r="G301" t="s">
+      <c r="G301" s="17" t="s">
         <v>1340</v>
       </c>
-      <c r="H301" t="s">
+      <c r="H301" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I301" t="s">
+      <c r="I301" s="17" t="s">
         <v>1734</v>
       </c>
-      <c r="J301" t="s">
+      <c r="J301" s="17" t="s">
         <v>1736</v>
       </c>
-      <c r="K301" t="s">
+      <c r="K301" s="17" t="s">
         <v>1340</v>
       </c>
     </row>
@@ -21861,73 +21883,73 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+    <row r="303" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="11" t="s">
         <v>1744</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="11" t="s">
         <v>1745</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C303" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="11" t="s">
         <v>1746</v>
       </c>
-      <c r="E303" t="s">
-        <v>13</v>
-      </c>
-      <c r="F303" t="s">
+      <c r="E303" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F303" s="11" t="s">
         <v>1747</v>
       </c>
-      <c r="G303" t="s">
+      <c r="G303" s="11" t="s">
         <v>1741</v>
       </c>
-      <c r="H303" t="s">
+      <c r="H303" s="11" t="s">
         <v>1368</v>
       </c>
-      <c r="I303" t="s">
+      <c r="I303" s="11" t="s">
         <v>1746</v>
       </c>
-      <c r="J303" t="s">
+      <c r="J303" s="11" t="s">
         <v>1748</v>
       </c>
-      <c r="K303" t="s">
+      <c r="K303" s="11" t="s">
         <v>1741</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+    <row r="304" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="11" t="s">
         <v>1749</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="11" t="s">
         <v>1750</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C304" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="11" t="s">
         <v>1751</v>
       </c>
-      <c r="E304" t="s">
-        <v>13</v>
-      </c>
-      <c r="F304" t="s">
+      <c r="E304" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F304" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="G304" t="s">
-        <v>34</v>
-      </c>
-      <c r="H304" t="s">
+      <c r="G304" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H304" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I304" t="s">
+      <c r="I304" s="11" t="s">
         <v>1751</v>
       </c>
-      <c r="J304" t="s">
+      <c r="J304" s="11" t="s">
         <v>1753</v>
       </c>
-      <c r="K304" t="s">
+      <c r="K304" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -21966,108 +21988,108 @@
         <v>34</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+    <row r="306" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="11" t="s">
         <v>1760</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="11" t="s">
         <v>1761</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C306" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="11" t="s">
         <v>1762</v>
       </c>
-      <c r="E306" t="s">
-        <v>13</v>
-      </c>
-      <c r="F306" t="s">
+      <c r="E306" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F306" s="11" t="s">
         <v>1763</v>
       </c>
-      <c r="G306" t="s">
-        <v>34</v>
-      </c>
-      <c r="H306" t="s">
+      <c r="G306" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H306" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I306" t="s">
+      <c r="I306" s="11" t="s">
         <v>1764</v>
       </c>
-      <c r="J306" t="s">
+      <c r="J306" s="11" t="s">
         <v>1765</v>
       </c>
-      <c r="K306" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="K306" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
         <v>1766</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="3" t="s">
         <v>1767</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C307" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="3" t="s">
         <v>1768</v>
       </c>
-      <c r="E307" t="s">
-        <v>13</v>
-      </c>
-      <c r="F307" t="s">
+      <c r="E307" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F307" s="3" t="s">
         <v>1769</v>
       </c>
-      <c r="G307" t="s">
+      <c r="G307" s="3" t="s">
         <v>1770</v>
       </c>
-      <c r="H307" t="s">
+      <c r="H307" s="3" t="s">
         <v>1771</v>
       </c>
-      <c r="I307" t="s">
+      <c r="I307" s="3" t="s">
         <v>1768</v>
       </c>
-      <c r="J307" t="s">
+      <c r="J307" s="3" t="s">
         <v>1772</v>
       </c>
-      <c r="K307" t="s">
+      <c r="K307" s="3" t="s">
         <v>1770</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+    <row r="308" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="17" t="s">
         <v>1773</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="17" t="s">
         <v>1774</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C308" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308" s="17" t="s">
         <v>1775</v>
       </c>
-      <c r="E308" t="s">
-        <v>13</v>
-      </c>
-      <c r="F308" t="s">
+      <c r="E308" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F308" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="G308" t="s">
+      <c r="G308" s="17" t="s">
         <v>1776</v>
       </c>
-      <c r="H308" t="s">
+      <c r="H308" s="17" t="s">
         <v>1777</v>
       </c>
-      <c r="I308" t="s">
+      <c r="I308" s="17" t="s">
         <v>1775</v>
       </c>
-      <c r="J308" t="s">
+      <c r="J308" s="17" t="s">
         <v>1778</v>
       </c>
-      <c r="K308" t="s">
+      <c r="K308" s="17" t="s">
         <v>1776</v>
       </c>
     </row>
@@ -22106,73 +22128,73 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
+    <row r="310" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="17" t="s">
         <v>1785</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="17" t="s">
         <v>1786</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C310" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="E310" t="s">
-        <v>13</v>
-      </c>
-      <c r="F310" t="s">
+      <c r="E310" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F310" s="17" t="s">
         <v>1787</v>
       </c>
-      <c r="G310" t="s">
+      <c r="G310" s="17" t="s">
         <v>1788</v>
       </c>
-      <c r="H310" t="s">
+      <c r="H310" s="17" t="s">
         <v>1789</v>
       </c>
-      <c r="I310" t="s">
+      <c r="I310" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="J310" t="s">
+      <c r="J310" s="17" t="s">
         <v>1790</v>
       </c>
-      <c r="K310" t="s">
+      <c r="K310" s="17" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+    <row r="311" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="8" t="s">
         <v>1791</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="8" t="s">
         <v>1792</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C311" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311" s="8" t="s">
         <v>1793</v>
       </c>
-      <c r="E311" t="s">
-        <v>13</v>
-      </c>
-      <c r="F311" t="s">
+      <c r="E311" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F311" s="8" t="s">
         <v>1084</v>
       </c>
-      <c r="G311" t="s">
+      <c r="G311" s="8" t="s">
         <v>1794</v>
       </c>
-      <c r="H311" t="s">
+      <c r="H311" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I311" t="s">
+      <c r="I311" s="8" t="s">
         <v>1793</v>
       </c>
-      <c r="J311" t="s">
+      <c r="J311" s="8" t="s">
         <v>1795</v>
       </c>
-      <c r="K311" t="s">
+      <c r="K311" s="8" t="s">
         <v>1794</v>
       </c>
     </row>
@@ -22211,38 +22233,38 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+    <row r="313" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="11" t="s">
         <v>1801</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="11" t="s">
         <v>1802</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C313" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313" s="11" t="s">
         <v>1803</v>
       </c>
-      <c r="E313" t="s">
-        <v>13</v>
-      </c>
-      <c r="F313" t="s">
+      <c r="E313" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F313" s="11" t="s">
         <v>1804</v>
       </c>
-      <c r="G313" t="s">
+      <c r="G313" s="11" t="s">
         <v>1805</v>
       </c>
-      <c r="H313" t="s">
+      <c r="H313" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I313" t="s">
+      <c r="I313" s="11" t="s">
         <v>1803</v>
       </c>
-      <c r="J313" t="s">
+      <c r="J313" s="11" t="s">
         <v>1806</v>
       </c>
-      <c r="K313" t="s">
+      <c r="K313" s="11" t="s">
         <v>1805</v>
       </c>
     </row>
@@ -22281,38 +22303,38 @@
         <v>182</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+    <row r="315" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="11" t="s">
         <v>1812</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="11" t="s">
         <v>1813</v>
       </c>
-      <c r="C315" t="s">
+      <c r="C315" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="11" t="s">
         <v>1814</v>
       </c>
-      <c r="E315" t="s">
-        <v>13</v>
-      </c>
-      <c r="F315" t="s">
+      <c r="E315" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F315" s="11" t="s">
         <v>1815</v>
       </c>
-      <c r="G315" t="s">
+      <c r="G315" s="11" t="s">
         <v>1816</v>
       </c>
-      <c r="H315" t="s">
+      <c r="H315" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I315" t="s">
+      <c r="I315" s="11" t="s">
         <v>1814</v>
       </c>
-      <c r="J315" t="s">
+      <c r="J315" s="11" t="s">
         <v>1817</v>
       </c>
-      <c r="K315" t="s">
+      <c r="K315" s="11" t="s">
         <v>1816</v>
       </c>
     </row>
@@ -22421,353 +22443,353 @@
         <v>182</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
+    <row r="319" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="17" t="s">
         <v>1835</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="17" t="s">
         <v>1836</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C319" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D319" s="17" t="s">
         <v>1837</v>
       </c>
-      <c r="E319" t="s">
-        <v>13</v>
-      </c>
-      <c r="F319" t="s">
+      <c r="E319" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F319" s="17" t="s">
         <v>1838</v>
       </c>
-      <c r="G319" t="s">
+      <c r="G319" s="17" t="s">
         <v>1199</v>
       </c>
-      <c r="H319" t="s">
+      <c r="H319" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I319" t="s">
+      <c r="I319" s="17" t="s">
         <v>1837</v>
       </c>
-      <c r="J319" t="s">
+      <c r="J319" s="17" t="s">
         <v>1839</v>
       </c>
-      <c r="K319" t="s">
+      <c r="K319" s="17" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+    <row r="320" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="17" t="s">
         <v>1840</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="17" t="s">
         <v>1841</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C320" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D320" s="17" t="s">
         <v>1842</v>
       </c>
-      <c r="E320" t="s">
-        <v>13</v>
-      </c>
-      <c r="F320" t="s">
+      <c r="E320" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F320" s="17" t="s">
         <v>1843</v>
       </c>
-      <c r="G320" t="s">
+      <c r="G320" s="17" t="s">
         <v>1844</v>
       </c>
-      <c r="H320" t="s">
+      <c r="H320" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="I320" t="s">
+      <c r="I320" s="17" t="s">
         <v>1842</v>
       </c>
-      <c r="J320" t="s">
+      <c r="J320" s="17" t="s">
         <v>1845</v>
       </c>
-      <c r="K320" t="s">
+      <c r="K320" s="17" t="s">
         <v>1844</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+    <row r="321" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="17" t="s">
         <v>1846</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="17" t="s">
         <v>1847</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C321" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D321" s="17" t="s">
         <v>1848</v>
       </c>
-      <c r="E321" t="s">
-        <v>13</v>
-      </c>
-      <c r="F321" t="s">
+      <c r="E321" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F321" s="17" t="s">
         <v>1849</v>
       </c>
-      <c r="G321" t="s">
+      <c r="G321" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="H321" t="s">
+      <c r="H321" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I321" t="s">
+      <c r="I321" s="17" t="s">
         <v>1850</v>
       </c>
-      <c r="J321" t="s">
+      <c r="J321" s="17" t="s">
         <v>1851</v>
       </c>
-      <c r="K321" t="s">
+      <c r="K321" s="17" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
+    <row r="322" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
         <v>1852</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="3" t="s">
         <v>1853</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C322" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D322" s="3" t="s">
         <v>1854</v>
       </c>
-      <c r="E322" t="s">
-        <v>13</v>
-      </c>
-      <c r="F322" t="s">
+      <c r="E322" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F322" s="3" t="s">
         <v>1855</v>
       </c>
-      <c r="G322" t="s">
+      <c r="G322" s="3" t="s">
         <v>1856</v>
       </c>
-      <c r="H322" t="s">
+      <c r="H322" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I322" t="s">
+      <c r="I322" s="3" t="s">
         <v>1854</v>
       </c>
-      <c r="J322" t="s">
+      <c r="J322" s="3" t="s">
         <v>1857</v>
       </c>
-      <c r="K322" t="s">
+      <c r="K322" s="3" t="s">
         <v>1856</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+    <row r="323" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
         <v>1858</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="3" t="s">
         <v>1859</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C323" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323" s="3" t="s">
         <v>1860</v>
       </c>
-      <c r="E323" t="s">
-        <v>13</v>
-      </c>
-      <c r="F323" t="s">
+      <c r="E323" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F323" s="3" t="s">
         <v>1861</v>
       </c>
-      <c r="G323" t="s">
+      <c r="G323" s="3" t="s">
         <v>1862</v>
       </c>
-      <c r="H323" t="s">
+      <c r="H323" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I323" t="s">
+      <c r="I323" s="3" t="s">
         <v>1863</v>
       </c>
-      <c r="J323" t="s">
+      <c r="J323" s="3" t="s">
         <v>1864</v>
       </c>
-      <c r="K323" t="s">
+      <c r="K323" s="3" t="s">
         <v>1862</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+    <row r="324" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="11" t="s">
         <v>1865</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C324" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324" s="11" t="s">
         <v>1866</v>
       </c>
-      <c r="E324" t="s">
-        <v>13</v>
-      </c>
-      <c r="F324" t="s">
+      <c r="E324" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F324" s="11" t="s">
         <v>1867</v>
       </c>
-      <c r="G324" t="s">
+      <c r="G324" s="11" t="s">
         <v>1868</v>
       </c>
-      <c r="H324" t="s">
+      <c r="H324" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I324" t="s">
+      <c r="I324" s="11" t="s">
         <v>1866</v>
       </c>
-      <c r="J324" t="s">
+      <c r="J324" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="K324" t="s">
+      <c r="K324" s="11" t="s">
         <v>1868</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+    <row r="325" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="15" t="s">
         <v>1869</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="15" t="s">
         <v>1870</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C325" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D325" s="15" t="s">
         <v>1871</v>
       </c>
-      <c r="E325" t="s">
-        <v>13</v>
-      </c>
-      <c r="F325" t="s">
+      <c r="E325" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F325" s="15" t="s">
         <v>1872</v>
       </c>
-      <c r="G325" t="s">
+      <c r="G325" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="H325" t="s">
+      <c r="H325" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I325" t="s">
+      <c r="I325" s="15" t="s">
         <v>1871</v>
       </c>
-      <c r="J325" t="s">
+      <c r="J325" s="15" t="s">
         <v>1873</v>
       </c>
-      <c r="K325" t="s">
+      <c r="K325" s="15" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+    <row r="326" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="11" t="s">
         <v>1874</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="11" t="s">
         <v>1875</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C326" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D326" s="11" t="s">
         <v>1876</v>
       </c>
-      <c r="E326" t="s">
-        <v>13</v>
-      </c>
-      <c r="F326" t="s">
+      <c r="E326" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F326" s="11" t="s">
         <v>1877</v>
       </c>
-      <c r="G326" t="s">
+      <c r="G326" s="11" t="s">
         <v>1878</v>
       </c>
-      <c r="H326" t="s">
+      <c r="H326" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I326" t="s">
+      <c r="I326" s="11" t="s">
         <v>1876</v>
       </c>
-      <c r="J326" t="s">
+      <c r="J326" s="11" t="s">
         <v>1879</v>
       </c>
-      <c r="K326" t="s">
+      <c r="K326" s="11" t="s">
         <v>1878</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
+    <row r="327" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="3" t="s">
         <v>1880</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="3" t="s">
         <v>1881</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C327" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D327" s="3" t="s">
         <v>1882</v>
       </c>
-      <c r="E327" t="s">
-        <v>13</v>
-      </c>
-      <c r="F327" t="s">
+      <c r="E327" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F327" s="3" t="s">
         <v>1883</v>
       </c>
-      <c r="G327" t="s">
+      <c r="G327" s="3" t="s">
         <v>1346</v>
       </c>
-      <c r="H327" t="s">
+      <c r="H327" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I327" t="s">
+      <c r="I327" s="3" t="s">
         <v>1882</v>
       </c>
-      <c r="J327" t="s">
+      <c r="J327" s="3" t="s">
         <v>1884</v>
       </c>
-      <c r="K327" t="s">
+      <c r="K327" s="3" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+    <row r="328" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
         <v>1885</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="3" t="s">
         <v>1886</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C328" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D328" s="3" t="s">
         <v>1887</v>
       </c>
-      <c r="E328" t="s">
-        <v>13</v>
-      </c>
-      <c r="F328" t="s">
+      <c r="E328" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F328" s="3" t="s">
         <v>1888</v>
       </c>
-      <c r="G328" t="s">
-        <v>34</v>
-      </c>
-      <c r="H328" t="s">
+      <c r="G328" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H328" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I328" t="s">
+      <c r="I328" s="3" t="s">
         <v>1887</v>
       </c>
-      <c r="J328" t="s">
+      <c r="J328" s="3" t="s">
         <v>1889</v>
       </c>
-      <c r="K328" t="s">
+      <c r="K328" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -22911,38 +22933,38 @@
         <v>182</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+    <row r="333" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="11" t="s">
         <v>1913</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="11" t="s">
         <v>1914</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C333" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D333" s="11" t="s">
         <v>1915</v>
       </c>
-      <c r="E333" t="s">
-        <v>13</v>
-      </c>
-      <c r="F333" t="s">
+      <c r="E333" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F333" s="11" t="s">
         <v>1893</v>
       </c>
-      <c r="G333" t="s">
+      <c r="G333" s="11" t="s">
         <v>1844</v>
       </c>
-      <c r="H333" t="s">
+      <c r="H333" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="I333" t="s">
+      <c r="I333" s="11" t="s">
         <v>1916</v>
       </c>
-      <c r="J333" t="s">
+      <c r="J333" s="11" t="s">
         <v>1917</v>
       </c>
-      <c r="K333" t="s">
+      <c r="K333" s="11" t="s">
         <v>1844</v>
       </c>
     </row>
@@ -22981,38 +23003,38 @@
         <v>18</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+    <row r="335" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="3" t="s">
         <v>1923</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="3" t="s">
         <v>1924</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C335" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D335" s="3" t="s">
         <v>1925</v>
       </c>
-      <c r="E335" t="s">
-        <v>13</v>
-      </c>
-      <c r="F335" t="s">
+      <c r="E335" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F335" s="3" t="s">
         <v>1926</v>
       </c>
-      <c r="G335" t="s">
-        <v>34</v>
-      </c>
-      <c r="H335" t="s">
+      <c r="G335" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H335" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I335" t="s">
+      <c r="I335" s="3" t="s">
         <v>1925</v>
       </c>
-      <c r="J335" t="s">
+      <c r="J335" s="3" t="s">
         <v>1927</v>
       </c>
-      <c r="K335" t="s">
+      <c r="K335" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -23051,143 +23073,143 @@
         <v>34</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+    <row r="337" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="8" t="s">
         <v>1934</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="8" t="s">
         <v>1935</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C337" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D337" s="8" t="s">
         <v>1936</v>
       </c>
-      <c r="E337" t="s">
-        <v>13</v>
-      </c>
-      <c r="F337" t="s">
+      <c r="E337" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F337" s="8" t="s">
         <v>1937</v>
       </c>
-      <c r="G337" t="s">
+      <c r="G337" s="8" t="s">
         <v>1938</v>
       </c>
-      <c r="H337" t="s">
+      <c r="H337" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I337" t="s">
+      <c r="I337" s="8" t="s">
         <v>1936</v>
       </c>
-      <c r="J337" t="s">
+      <c r="J337" s="8" t="s">
         <v>1939</v>
       </c>
-      <c r="K337" t="s">
+      <c r="K337" s="8" t="s">
         <v>1938</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+    <row r="338" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="8" t="s">
         <v>1940</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="8" t="s">
         <v>1941</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C338" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D338" s="8" t="s">
         <v>1942</v>
       </c>
-      <c r="E338" t="s">
-        <v>13</v>
-      </c>
-      <c r="F338" t="s">
+      <c r="E338" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F338" s="8" t="s">
         <v>1943</v>
       </c>
-      <c r="G338" t="s">
+      <c r="G338" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H338" t="s">
+      <c r="H338" s="8" t="s">
         <v>1944</v>
       </c>
-      <c r="I338" t="s">
+      <c r="I338" s="8" t="s">
         <v>1942</v>
       </c>
-      <c r="J338" t="s">
+      <c r="J338" s="8" t="s">
         <v>1945</v>
       </c>
-      <c r="K338" t="s">
+      <c r="K338" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+    <row r="339" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="8" t="s">
         <v>1946</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="8" t="s">
         <v>1947</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C339" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D339" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="E339" t="s">
-        <v>13</v>
-      </c>
-      <c r="F339" t="s">
+      <c r="E339" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F339" s="8" t="s">
         <v>1948</v>
       </c>
-      <c r="G339" t="s">
+      <c r="G339" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="H339" t="s">
+      <c r="H339" s="8" t="s">
         <v>1368</v>
       </c>
-      <c r="I339" t="s">
+      <c r="I339" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="J339" t="s">
+      <c r="J339" s="8" t="s">
         <v>1949</v>
       </c>
-      <c r="K339" t="s">
+      <c r="K339" s="8" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+    <row r="340" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="11" t="s">
         <v>1950</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="11" t="s">
         <v>1951</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C340" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D340" s="11" t="s">
         <v>1952</v>
       </c>
-      <c r="E340" t="s">
-        <v>13</v>
-      </c>
-      <c r="F340" t="s">
+      <c r="E340" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F340" s="11" t="s">
         <v>1953</v>
       </c>
-      <c r="G340" t="s">
+      <c r="G340" s="11" t="s">
         <v>800</v>
       </c>
-      <c r="H340" t="s">
+      <c r="H340" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I340" t="s">
+      <c r="I340" s="11" t="s">
         <v>1952</v>
       </c>
-      <c r="J340" t="s">
+      <c r="J340" s="11" t="s">
         <v>1954</v>
       </c>
-      <c r="K340" t="s">
+      <c r="K340" s="11" t="s">
         <v>800</v>
       </c>
     </row>
@@ -23226,108 +23248,108 @@
         <v>182</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+    <row r="342" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="11" t="s">
         <v>1960</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="11" t="s">
         <v>1961</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C342" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D342" s="11" t="s">
         <v>1962</v>
       </c>
-      <c r="E342" t="s">
-        <v>13</v>
-      </c>
-      <c r="F342" t="s">
+      <c r="E342" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F342" s="11" t="s">
         <v>1963</v>
       </c>
-      <c r="G342" t="s">
+      <c r="G342" s="11" t="s">
         <v>800</v>
       </c>
-      <c r="H342" t="s">
+      <c r="H342" s="11" t="s">
         <v>1964</v>
       </c>
-      <c r="I342" t="s">
+      <c r="I342" s="11" t="s">
         <v>1962</v>
       </c>
-      <c r="J342" t="s">
+      <c r="J342" s="11" t="s">
         <v>1965</v>
       </c>
-      <c r="K342" t="s">
+      <c r="K342" s="11" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+    <row r="343" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="8" t="s">
         <v>1966</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="8" t="s">
         <v>1967</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C343" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D343" s="8" t="s">
         <v>1968</v>
       </c>
-      <c r="E343" t="s">
-        <v>13</v>
-      </c>
-      <c r="F343" t="s">
+      <c r="E343" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F343" s="8" t="s">
         <v>1969</v>
       </c>
-      <c r="G343" t="s">
+      <c r="G343" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="H343" t="s">
+      <c r="H343" s="8" t="s">
         <v>1970</v>
       </c>
-      <c r="I343" t="s">
+      <c r="I343" s="8" t="s">
         <v>1968</v>
       </c>
-      <c r="J343" t="s">
+      <c r="J343" s="8" t="s">
         <v>1971</v>
       </c>
-      <c r="K343" t="s">
+      <c r="K343" s="8" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+    <row r="344" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="11" t="s">
         <v>1972</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="11" t="s">
         <v>1973</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C344" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D344" s="11" t="s">
         <v>1974</v>
       </c>
-      <c r="E344" t="s">
-        <v>13</v>
-      </c>
-      <c r="F344" t="s">
+      <c r="E344" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F344" s="11" t="s">
         <v>1975</v>
       </c>
-      <c r="G344" t="s">
-        <v>34</v>
-      </c>
-      <c r="H344" t="s">
+      <c r="G344" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H344" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I344" t="s">
+      <c r="I344" s="11" t="s">
         <v>1974</v>
       </c>
-      <c r="J344" t="s">
+      <c r="J344" s="11" t="s">
         <v>1976</v>
       </c>
-      <c r="K344" t="s">
+      <c r="K344" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -23436,73 +23458,73 @@
         <v>29</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+    <row r="348" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="11" t="s">
         <v>1992</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="11" t="s">
         <v>1993</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C348" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D348" s="11" t="s">
         <v>1994</v>
       </c>
-      <c r="E348" t="s">
-        <v>13</v>
-      </c>
-      <c r="F348" t="s">
+      <c r="E348" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F348" s="11" t="s">
         <v>1995</v>
       </c>
-      <c r="G348" t="s">
+      <c r="G348" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H348" t="s">
+      <c r="H348" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I348" t="s">
+      <c r="I348" s="11" t="s">
         <v>1996</v>
       </c>
-      <c r="J348" t="s">
+      <c r="J348" s="11" t="s">
         <v>1997</v>
       </c>
-      <c r="K348" t="s">
+      <c r="K348" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+    <row r="349" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="11" t="s">
         <v>1998</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="11" t="s">
         <v>1999</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C349" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D349" s="11" t="s">
         <v>2000</v>
       </c>
-      <c r="E349" t="s">
-        <v>13</v>
-      </c>
-      <c r="F349" t="s">
+      <c r="E349" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F349" s="11" t="s">
         <v>2001</v>
       </c>
-      <c r="G349" t="s">
+      <c r="G349" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H349" t="s">
+      <c r="H349" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I349" t="s">
+      <c r="I349" s="11" t="s">
         <v>2002</v>
       </c>
-      <c r="J349" t="s">
+      <c r="J349" s="11" t="s">
         <v>2003</v>
       </c>
-      <c r="K349" t="s">
+      <c r="K349" s="11" t="s">
         <v>182</v>
       </c>
     </row>
@@ -23576,73 +23598,73 @@
         <v>182</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+    <row r="352" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="11" t="s">
         <v>2013</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="11" t="s">
         <v>2014</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C352" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D352" s="11" t="s">
         <v>2015</v>
       </c>
-      <c r="E352" t="s">
-        <v>13</v>
-      </c>
-      <c r="F352" t="s">
+      <c r="E352" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F352" s="11" t="s">
         <v>2016</v>
       </c>
-      <c r="G352" t="s">
+      <c r="G352" s="11" t="s">
         <v>913</v>
       </c>
-      <c r="H352" t="s">
+      <c r="H352" s="11" t="s">
         <v>2017</v>
       </c>
-      <c r="I352" t="s">
+      <c r="I352" s="11" t="s">
         <v>2015</v>
       </c>
-      <c r="J352" t="s">
+      <c r="J352" s="11" t="s">
         <v>2018</v>
       </c>
-      <c r="K352" t="s">
+      <c r="K352" s="11" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+    <row r="353" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="11" t="s">
         <v>2019</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="11" t="s">
         <v>2020</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C353" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D353" s="11" t="s">
         <v>2021</v>
       </c>
-      <c r="E353" t="s">
-        <v>13</v>
-      </c>
-      <c r="F353" t="s">
+      <c r="E353" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F353" s="11" t="s">
         <v>2022</v>
       </c>
-      <c r="G353" t="s">
+      <c r="G353" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H353" t="s">
+      <c r="H353" s="11" t="s">
         <v>2023</v>
       </c>
-      <c r="I353" t="s">
+      <c r="I353" s="11" t="s">
         <v>2021</v>
       </c>
-      <c r="J353" t="s">
+      <c r="J353" s="11" t="s">
         <v>2024</v>
       </c>
-      <c r="K353" t="s">
+      <c r="K353" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -23751,38 +23773,38 @@
         <v>18</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+    <row r="357" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="8" t="s">
         <v>2039</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="8" t="s">
         <v>2040</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C357" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D357" s="8" t="s">
         <v>2041</v>
       </c>
-      <c r="E357" t="s">
-        <v>13</v>
-      </c>
-      <c r="F357" t="s">
+      <c r="E357" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F357" s="8" t="s">
         <v>2042</v>
       </c>
-      <c r="G357" t="s">
+      <c r="G357" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H357" t="s">
+      <c r="H357" s="8" t="s">
         <v>2043</v>
       </c>
-      <c r="I357" t="s">
+      <c r="I357" s="8" t="s">
         <v>2041</v>
       </c>
-      <c r="J357" t="s">
+      <c r="J357" s="8" t="s">
         <v>2044</v>
       </c>
-      <c r="K357" t="s">
+      <c r="K357" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -23821,38 +23843,38 @@
         <v>318</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+    <row r="359" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="8" t="s">
         <v>2050</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="8" t="s">
         <v>2051</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C359" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D359" s="8" t="s">
         <v>2052</v>
       </c>
-      <c r="E359" t="s">
-        <v>13</v>
-      </c>
-      <c r="F359" t="s">
+      <c r="E359" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F359" s="8" t="s">
         <v>2053</v>
       </c>
-      <c r="G359" t="s">
+      <c r="G359" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="H359" t="s">
+      <c r="H359" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="I359" t="s">
+      <c r="I359" s="8" t="s">
         <v>2052</v>
       </c>
-      <c r="J359" t="s">
+      <c r="J359" s="8" t="s">
         <v>2054</v>
       </c>
-      <c r="K359" t="s">
+      <c r="K359" s="8" t="s">
         <v>182</v>
       </c>
     </row>
@@ -23891,38 +23913,38 @@
         <v>182</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+    <row r="361" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="3" t="s">
         <v>2058</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="3" t="s">
         <v>2059</v>
       </c>
-      <c r="C361" t="s">
+      <c r="C361" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D361" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="E361" t="s">
-        <v>13</v>
-      </c>
-      <c r="F361" t="s">
+      <c r="E361" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F361" s="3" t="s">
         <v>2060</v>
       </c>
-      <c r="G361" t="s">
-        <v>34</v>
-      </c>
-      <c r="H361" t="s">
+      <c r="G361" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H361" s="3" t="s">
         <v>2061</v>
       </c>
-      <c r="I361" t="s">
+      <c r="I361" s="3" t="s">
         <v>1107</v>
       </c>
-      <c r="J361" t="s">
+      <c r="J361" s="3" t="s">
         <v>2062</v>
       </c>
-      <c r="K361" t="s">
+      <c r="K361" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -23961,38 +23983,38 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
+    <row r="363" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="11" t="s">
         <v>2070</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="11" t="s">
         <v>2071</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C363" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D363" t="s">
+      <c r="D363" s="11" t="s">
         <v>2072</v>
       </c>
-      <c r="E363" t="s">
-        <v>13</v>
-      </c>
-      <c r="F363" t="s">
+      <c r="E363" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F363" s="11" t="s">
         <v>2073</v>
       </c>
-      <c r="G363" t="s">
+      <c r="G363" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="H363" t="s">
+      <c r="H363" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="I363" t="s">
+      <c r="I363" s="11" t="s">
         <v>2074</v>
       </c>
-      <c r="J363" t="s">
+      <c r="J363" s="11" t="s">
         <v>2075</v>
       </c>
-      <c r="K363" t="s">
+      <c r="K363" s="11" t="s">
         <v>289</v>
       </c>
     </row>
@@ -24101,73 +24123,73 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
+    <row r="367" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="16" t="s">
         <v>2092</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="16" t="s">
         <v>2093</v>
       </c>
-      <c r="C367" t="s">
+      <c r="C367" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D367" s="16" t="s">
         <v>2094</v>
       </c>
-      <c r="E367" t="s">
-        <v>13</v>
-      </c>
-      <c r="F367" t="s">
+      <c r="E367" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F367" s="16" t="s">
         <v>2095</v>
       </c>
-      <c r="G367" t="s">
+      <c r="G367" s="16" t="s">
         <v>710</v>
       </c>
-      <c r="H367" t="s">
+      <c r="H367" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I367" t="s">
+      <c r="I367" s="16" t="s">
         <v>2094</v>
       </c>
-      <c r="J367" t="s">
+      <c r="J367" s="16" t="s">
         <v>2096</v>
       </c>
-      <c r="K367" t="s">
+      <c r="K367" s="16" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
+    <row r="368" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="11" t="s">
         <v>2097</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="11" t="s">
         <v>2098</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C368" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D368" s="11" t="s">
         <v>2099</v>
       </c>
-      <c r="E368" t="s">
-        <v>13</v>
-      </c>
-      <c r="F368" t="s">
+      <c r="E368" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F368" s="11" t="s">
         <v>2100</v>
       </c>
-      <c r="G368" t="s">
+      <c r="G368" s="11" t="s">
         <v>888</v>
       </c>
-      <c r="H368" t="s">
+      <c r="H368" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I368" t="s">
+      <c r="I368" s="11" t="s">
         <v>2099</v>
       </c>
-      <c r="J368" t="s">
+      <c r="J368" s="11" t="s">
         <v>2101</v>
       </c>
-      <c r="K368" t="s">
+      <c r="K368" s="11" t="s">
         <v>888</v>
       </c>
     </row>
@@ -24416,38 +24438,38 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
+    <row r="376" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="11" t="s">
         <v>2139</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="11" t="s">
         <v>2140</v>
       </c>
-      <c r="C376" t="s">
+      <c r="C376" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D376" t="s">
+      <c r="D376" s="11" t="s">
         <v>2141</v>
       </c>
-      <c r="E376" t="s">
-        <v>13</v>
-      </c>
-      <c r="F376" t="s">
+      <c r="E376" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F376" s="11" t="s">
         <v>1258</v>
       </c>
-      <c r="G376" t="s">
+      <c r="G376" s="11" t="s">
         <v>2142</v>
       </c>
-      <c r="H376" t="s">
+      <c r="H376" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I376" t="s">
+      <c r="I376" s="11" t="s">
         <v>2141</v>
       </c>
-      <c r="J376" t="s">
+      <c r="J376" s="11" t="s">
         <v>2143</v>
       </c>
-      <c r="K376" t="s">
+      <c r="K376" s="11" t="s">
         <v>2142</v>
       </c>
     </row>
@@ -24486,73 +24508,73 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
+    <row r="378" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="3" t="s">
         <v>2150</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378" s="3" t="s">
         <v>2151</v>
       </c>
-      <c r="C378" t="s">
+      <c r="C378" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D378" t="s">
+      <c r="D378" s="3" t="s">
         <v>2152</v>
       </c>
-      <c r="E378" t="s">
-        <v>13</v>
-      </c>
-      <c r="F378" t="s">
+      <c r="E378" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F378" s="3" t="s">
         <v>2153</v>
       </c>
-      <c r="G378" t="s">
+      <c r="G378" s="3" t="s">
         <v>2090</v>
       </c>
-      <c r="H378" t="s">
+      <c r="H378" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I378" t="s">
+      <c r="I378" s="3" t="s">
         <v>2152</v>
       </c>
-      <c r="J378" t="s">
+      <c r="J378" s="3" t="s">
         <v>2154</v>
       </c>
-      <c r="K378" t="s">
+      <c r="K378" s="3" t="s">
         <v>2090</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+    <row r="379" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="8" t="s">
         <v>2155</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="8" t="s">
         <v>2156</v>
       </c>
-      <c r="C379" t="s">
+      <c r="C379" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D379" t="s">
+      <c r="D379" s="8" t="s">
         <v>2157</v>
       </c>
-      <c r="E379" t="s">
-        <v>13</v>
-      </c>
-      <c r="F379" t="s">
+      <c r="E379" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F379" s="8" t="s">
         <v>2158</v>
       </c>
-      <c r="G379" t="s">
+      <c r="G379" s="8" t="s">
         <v>1340</v>
       </c>
-      <c r="H379" t="s">
+      <c r="H379" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I379" t="s">
+      <c r="I379" s="8" t="s">
         <v>2157</v>
       </c>
-      <c r="J379" t="s">
+      <c r="J379" s="8" t="s">
         <v>2159</v>
       </c>
-      <c r="K379" t="s">
+      <c r="K379" s="8" t="s">
         <v>1340</v>
       </c>
     </row>
@@ -24591,38 +24613,38 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
+    <row r="381" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="3" t="s">
         <v>2165</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381" s="3" t="s">
         <v>2166</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C381" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D381" t="s">
+      <c r="D381" s="3" t="s">
         <v>2167</v>
       </c>
-      <c r="E381" t="s">
-        <v>13</v>
-      </c>
-      <c r="F381" t="s">
+      <c r="E381" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F381" s="3" t="s">
         <v>2168</v>
       </c>
-      <c r="G381" t="s">
+      <c r="G381" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="H381" t="s">
+      <c r="H381" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I381" t="s">
+      <c r="I381" s="3" t="s">
         <v>2167</v>
       </c>
-      <c r="J381" t="s">
+      <c r="J381" s="3" t="s">
         <v>2169</v>
       </c>
-      <c r="K381" t="s">
+      <c r="K381" s="3" t="s">
         <v>710</v>
       </c>
     </row>
@@ -24661,108 +24683,108 @@
         <v>710</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
+    <row r="383" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="11" t="s">
         <v>2175</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="11" t="s">
         <v>2176</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C383" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D383" t="s">
+      <c r="D383" s="11" t="s">
         <v>2177</v>
       </c>
-      <c r="E383" t="s">
-        <v>13</v>
-      </c>
-      <c r="F383" t="s">
+      <c r="E383" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F383" s="11" t="s">
         <v>1581</v>
       </c>
-      <c r="G383" t="s">
+      <c r="G383" s="11" t="s">
         <v>1340</v>
       </c>
-      <c r="H383" t="s">
+      <c r="H383" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I383" t="s">
+      <c r="I383" s="11" t="s">
         <v>2177</v>
       </c>
-      <c r="J383" t="s">
+      <c r="J383" s="11" t="s">
         <v>2178</v>
       </c>
-      <c r="K383" t="s">
+      <c r="K383" s="11" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
+    <row r="384" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="11" t="s">
         <v>2179</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384" s="11" t="s">
         <v>2180</v>
       </c>
-      <c r="C384" t="s">
+      <c r="C384" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D384" t="s">
+      <c r="D384" s="11" t="s">
         <v>2181</v>
       </c>
-      <c r="E384" t="s">
-        <v>13</v>
-      </c>
-      <c r="F384" t="s">
+      <c r="E384" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F384" s="11" t="s">
         <v>2182</v>
       </c>
-      <c r="G384" t="s">
+      <c r="G384" s="11" t="s">
         <v>2090</v>
       </c>
-      <c r="H384" t="s">
+      <c r="H384" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I384" t="s">
+      <c r="I384" s="11" t="s">
         <v>2181</v>
       </c>
-      <c r="J384" t="s">
+      <c r="J384" s="11" t="s">
         <v>2183</v>
       </c>
-      <c r="K384" t="s">
+      <c r="K384" s="11" t="s">
         <v>2090</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+    <row r="385" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="8" t="s">
         <v>2184</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385" s="8" t="s">
         <v>2185</v>
       </c>
-      <c r="C385" t="s">
+      <c r="C385" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D385" s="8" t="s">
         <v>2146</v>
       </c>
-      <c r="E385" t="s">
-        <v>13</v>
-      </c>
-      <c r="F385" t="s">
+      <c r="E385" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F385" s="8" t="s">
         <v>2186</v>
       </c>
-      <c r="G385" t="s">
+      <c r="G385" s="8" t="s">
         <v>1741</v>
       </c>
-      <c r="H385" t="s">
+      <c r="H385" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I385" t="s">
+      <c r="I385" s="8" t="s">
         <v>2146</v>
       </c>
-      <c r="J385" t="s">
+      <c r="J385" s="8" t="s">
         <v>2187</v>
       </c>
-      <c r="K385" t="s">
+      <c r="K385" s="8" t="s">
         <v>1741</v>
       </c>
     </row>
@@ -24801,38 +24823,38 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
+    <row r="387" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="8" t="s">
         <v>2192</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="8" t="s">
         <v>2193</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C387" s="8" t="s">
         <v>1404</v>
       </c>
-      <c r="D387" t="s">
+      <c r="D387" s="8" t="s">
         <v>2194</v>
       </c>
-      <c r="E387" t="s">
-        <v>13</v>
-      </c>
-      <c r="F387" t="s">
+      <c r="E387" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F387" s="8" t="s">
         <v>2195</v>
       </c>
-      <c r="G387" t="s">
+      <c r="G387" s="8" t="s">
         <v>2148</v>
       </c>
-      <c r="H387" t="s">
+      <c r="H387" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I387" t="s">
+      <c r="I387" s="8" t="s">
         <v>2194</v>
       </c>
-      <c r="J387" t="s">
+      <c r="J387" s="8" t="s">
         <v>2196</v>
       </c>
-      <c r="K387" t="s">
+      <c r="K387" s="8" t="s">
         <v>2148</v>
       </c>
     </row>
@@ -25011,38 +25033,38 @@
         <v>888</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
+    <row r="393" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="11" t="s">
         <v>2221</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393" s="11" t="s">
         <v>2222</v>
       </c>
-      <c r="C393" t="s">
+      <c r="C393" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D393" t="s">
+      <c r="D393" s="11" t="s">
         <v>2146</v>
       </c>
-      <c r="E393" t="s">
-        <v>13</v>
-      </c>
-      <c r="F393" t="s">
+      <c r="E393" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F393" s="11" t="s">
         <v>2223</v>
       </c>
-      <c r="G393" t="s">
+      <c r="G393" s="11" t="s">
         <v>1340</v>
       </c>
-      <c r="H393" t="s">
+      <c r="H393" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I393" t="s">
+      <c r="I393" s="11" t="s">
         <v>2146</v>
       </c>
-      <c r="J393" t="s">
+      <c r="J393" s="11" t="s">
         <v>2224</v>
       </c>
-      <c r="K393" t="s">
+      <c r="K393" s="11" t="s">
         <v>1340</v>
       </c>
     </row>
@@ -25116,73 +25138,73 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+    <row r="396" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="11" t="s">
         <v>2235</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396" s="11" t="s">
         <v>2236</v>
       </c>
-      <c r="C396" t="s">
+      <c r="C396" s="11" t="s">
         <v>1234</v>
       </c>
-      <c r="D396" t="s">
+      <c r="D396" s="11" t="s">
         <v>2146</v>
       </c>
-      <c r="E396" t="s">
-        <v>13</v>
-      </c>
-      <c r="F396" t="s">
+      <c r="E396" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F396" s="11" t="s">
         <v>2233</v>
       </c>
-      <c r="G396" t="s">
+      <c r="G396" s="11" t="s">
         <v>2106</v>
       </c>
-      <c r="H396" t="s">
+      <c r="H396" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I396" t="s">
+      <c r="I396" s="11" t="s">
         <v>2146</v>
       </c>
-      <c r="J396" t="s">
+      <c r="J396" s="11" t="s">
         <v>2237</v>
       </c>
-      <c r="K396" t="s">
+      <c r="K396" s="11" t="s">
         <v>2106</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+    <row r="397" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="17" t="s">
         <v>2238</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="17" t="s">
         <v>2239</v>
       </c>
-      <c r="C397" t="s">
+      <c r="C397" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="D397" t="s">
+      <c r="D397" s="17" t="s">
         <v>2240</v>
       </c>
-      <c r="E397" t="s">
-        <v>13</v>
-      </c>
-      <c r="F397" t="s">
+      <c r="E397" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F397" s="17" t="s">
         <v>2233</v>
       </c>
-      <c r="G397" t="s">
+      <c r="G397" s="17" t="s">
         <v>2137</v>
       </c>
-      <c r="H397" t="s">
+      <c r="H397" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I397" t="s">
+      <c r="I397" s="17" t="s">
         <v>2240</v>
       </c>
-      <c r="J397" t="s">
+      <c r="J397" s="17" t="s">
         <v>2241</v>
       </c>
-      <c r="K397" t="s">
+      <c r="K397" s="17" t="s">
         <v>2137</v>
       </c>
     </row>
@@ -25221,38 +25243,38 @@
         <v>888</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
+    <row r="399" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="17" t="s">
         <v>2246</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="17" t="s">
         <v>2247</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C399" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D399" t="s">
+      <c r="D399" s="17" t="s">
         <v>2248</v>
       </c>
-      <c r="E399" t="s">
-        <v>13</v>
-      </c>
-      <c r="F399" t="s">
+      <c r="E399" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F399" s="17" t="s">
         <v>2233</v>
       </c>
-      <c r="G399" t="s">
+      <c r="G399" s="17" t="s">
         <v>2106</v>
       </c>
-      <c r="H399" t="s">
+      <c r="H399" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I399" t="s">
+      <c r="I399" s="17" t="s">
         <v>2248</v>
       </c>
-      <c r="J399" t="s">
+      <c r="J399" s="17" t="s">
         <v>2249</v>
       </c>
-      <c r="K399" t="s">
+      <c r="K399" s="17" t="s">
         <v>2106</v>
       </c>
     </row>
@@ -25291,181 +25313,181 @@
         <v>710</v>
       </c>
       <c r="L400" s="3" t="s">
-        <v>3427</v>
-      </c>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="11" t="s">
         <v>2254</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="11" t="s">
         <v>2255</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C401" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D401" t="s">
+      <c r="D401" s="11" t="s">
         <v>2256</v>
       </c>
-      <c r="E401" t="s">
-        <v>13</v>
-      </c>
-      <c r="F401" t="s">
+      <c r="E401" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F401" s="11" t="s">
         <v>2233</v>
       </c>
-      <c r="G401" t="s">
+      <c r="G401" s="11" t="s">
         <v>2137</v>
       </c>
-      <c r="H401" t="s">
+      <c r="H401" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I401" t="s">
+      <c r="I401" s="11" t="s">
         <v>2256</v>
       </c>
-      <c r="J401" t="s">
+      <c r="J401" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="K401" t="s">
+      <c r="K401" s="11" t="s">
         <v>2137</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+    <row r="402" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="11" t="s">
         <v>2257</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="11" t="s">
         <v>2258</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C402" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D402" t="s">
+      <c r="D402" s="11" t="s">
         <v>2259</v>
       </c>
-      <c r="E402" t="s">
-        <v>13</v>
-      </c>
-      <c r="F402" t="s">
+      <c r="E402" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F402" s="11" t="s">
         <v>2233</v>
       </c>
-      <c r="G402" t="s">
+      <c r="G402" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="H402" t="s">
+      <c r="H402" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I402" t="s">
+      <c r="I402" s="11" t="s">
         <v>2259</v>
       </c>
-      <c r="J402" t="s">
+      <c r="J402" s="11" t="s">
         <v>2260</v>
       </c>
-      <c r="K402" t="s">
+      <c r="K402" s="11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+    <row r="403" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="11" t="s">
         <v>2261</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403" s="11" t="s">
         <v>2262</v>
       </c>
-      <c r="C403" t="s">
+      <c r="C403" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D403" t="s">
+      <c r="D403" s="11" t="s">
         <v>2263</v>
       </c>
-      <c r="E403" t="s">
-        <v>13</v>
-      </c>
-      <c r="F403" t="s">
+      <c r="E403" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F403" s="11" t="s">
         <v>2233</v>
       </c>
-      <c r="G403" t="s">
+      <c r="G403" s="11" t="s">
         <v>2148</v>
       </c>
-      <c r="H403" t="s">
+      <c r="H403" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I403" t="s">
+      <c r="I403" s="11" t="s">
         <v>2263</v>
       </c>
-      <c r="J403" t="s">
+      <c r="J403" s="11" t="s">
         <v>2264</v>
       </c>
-      <c r="K403" t="s">
+      <c r="K403" s="11" t="s">
         <v>2148</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+    <row r="404" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="11" t="s">
         <v>2265</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B404" s="11" t="s">
         <v>2266</v>
       </c>
-      <c r="C404" t="s">
+      <c r="C404" s="11" t="s">
         <v>1404</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D404" s="11" t="s">
         <v>2267</v>
       </c>
-      <c r="E404" t="s">
-        <v>13</v>
-      </c>
-      <c r="F404" t="s">
+      <c r="E404" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F404" s="11" t="s">
         <v>2233</v>
       </c>
-      <c r="G404" t="s">
+      <c r="G404" s="11" t="s">
         <v>2268</v>
       </c>
-      <c r="H404" t="s">
+      <c r="H404" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I404" t="s">
+      <c r="I404" s="11" t="s">
         <v>2267</v>
       </c>
-      <c r="J404" t="s">
+      <c r="J404" s="11" t="s">
         <v>2269</v>
       </c>
-      <c r="K404" t="s">
+      <c r="K404" s="11" t="s">
         <v>2268</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
+    <row r="405" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="11" t="s">
         <v>2270</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="11" t="s">
         <v>2271</v>
       </c>
-      <c r="C405" t="s">
+      <c r="C405" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D405" t="s">
+      <c r="D405" s="11" t="s">
         <v>2146</v>
       </c>
-      <c r="E405" t="s">
-        <v>13</v>
-      </c>
-      <c r="F405" t="s">
+      <c r="E405" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F405" s="11" t="s">
         <v>2233</v>
       </c>
-      <c r="G405" t="s">
+      <c r="G405" s="11" t="s">
         <v>2272</v>
       </c>
-      <c r="H405" t="s">
+      <c r="H405" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I405" t="s">
+      <c r="I405" s="11" t="s">
         <v>2146</v>
       </c>
-      <c r="J405" t="s">
+      <c r="J405" s="11" t="s">
         <v>2273</v>
       </c>
-      <c r="K405" t="s">
+      <c r="K405" s="11" t="s">
         <v>2272</v>
       </c>
     </row>
@@ -25609,38 +25631,38 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+    <row r="410" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="8" t="s">
         <v>2287</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B410" s="8" t="s">
         <v>2288</v>
       </c>
-      <c r="C410" t="s">
+      <c r="C410" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D410" t="s">
+      <c r="D410" s="8" t="s">
         <v>2289</v>
       </c>
-      <c r="E410" t="s">
-        <v>13</v>
-      </c>
-      <c r="F410" t="s">
+      <c r="E410" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F410" s="8" t="s">
         <v>2233</v>
       </c>
-      <c r="G410" t="s">
+      <c r="G410" s="8" t="s">
         <v>1340</v>
       </c>
-      <c r="H410" t="s">
+      <c r="H410" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I410" t="s">
+      <c r="I410" s="8" t="s">
         <v>2289</v>
       </c>
-      <c r="J410" t="s">
+      <c r="J410" s="8" t="s">
         <v>2290</v>
       </c>
-      <c r="K410" t="s">
+      <c r="K410" s="8" t="s">
         <v>1340</v>
       </c>
     </row>
@@ -25889,73 +25911,73 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+    <row r="418" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="11" t="s">
         <v>2315</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418" s="11" t="s">
         <v>2316</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C418" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D418" t="s">
+      <c r="D418" s="11" t="s">
         <v>2317</v>
       </c>
-      <c r="E418" t="s">
-        <v>13</v>
-      </c>
-      <c r="F418" t="s">
+      <c r="E418" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F418" s="11" t="s">
         <v>2233</v>
       </c>
-      <c r="G418" t="s">
+      <c r="G418" s="11" t="s">
         <v>888</v>
       </c>
-      <c r="H418" t="s">
+      <c r="H418" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I418" t="s">
+      <c r="I418" s="11" t="s">
         <v>2317</v>
       </c>
-      <c r="J418" t="s">
+      <c r="J418" s="11" t="s">
         <v>2318</v>
       </c>
-      <c r="K418" t="s">
+      <c r="K418" s="11" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
+    <row r="419" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="8" t="s">
         <v>2319</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="8" t="s">
         <v>2320</v>
       </c>
-      <c r="C419" t="s">
+      <c r="C419" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D419" t="s">
+      <c r="D419" s="8" t="s">
         <v>1077</v>
       </c>
-      <c r="E419" t="s">
-        <v>13</v>
-      </c>
-      <c r="F419" t="s">
+      <c r="E419" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F419" s="8" t="s">
         <v>2233</v>
       </c>
-      <c r="G419" t="s">
+      <c r="G419" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="H419" t="s">
+      <c r="H419" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I419" t="s">
+      <c r="I419" s="8" t="s">
         <v>1077</v>
       </c>
-      <c r="J419" t="s">
+      <c r="J419" s="8" t="s">
         <v>2321</v>
       </c>
-      <c r="K419" t="s">
+      <c r="K419" s="8" t="s">
         <v>710</v>
       </c>
     </row>
@@ -25994,38 +26016,38 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
+    <row r="421" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="8" t="s">
         <v>2326</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B421" s="8" t="s">
         <v>2327</v>
       </c>
-      <c r="C421" t="s">
+      <c r="C421" s="8" t="s">
         <v>1234</v>
       </c>
-      <c r="D421" t="s">
+      <c r="D421" s="8" t="s">
         <v>2328</v>
       </c>
-      <c r="E421" t="s">
-        <v>13</v>
-      </c>
-      <c r="F421" t="s">
+      <c r="E421" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F421" s="8" t="s">
         <v>2233</v>
       </c>
-      <c r="G421" t="s">
+      <c r="G421" s="8" t="s">
         <v>1340</v>
       </c>
-      <c r="H421" t="s">
+      <c r="H421" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I421" t="s">
+      <c r="I421" s="8" t="s">
         <v>2328</v>
       </c>
-      <c r="J421" t="s">
+      <c r="J421" s="8" t="s">
         <v>2329</v>
       </c>
-      <c r="K421" t="s">
+      <c r="K421" s="8" t="s">
         <v>1340</v>
       </c>
     </row>
@@ -26099,38 +26121,38 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
+    <row r="424" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="16" t="s">
         <v>1396</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="16" t="s">
         <v>2010</v>
       </c>
-      <c r="C424" t="s">
+      <c r="C424" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D424" t="s">
+      <c r="D424" s="16" t="s">
         <v>2337</v>
       </c>
-      <c r="E424" t="s">
-        <v>13</v>
-      </c>
-      <c r="F424" t="s">
+      <c r="E424" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F424" s="16" t="s">
         <v>2233</v>
       </c>
-      <c r="G424" t="s">
+      <c r="G424" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="H424" t="s">
+      <c r="H424" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="I424" t="s">
+      <c r="I424" s="16" t="s">
         <v>2337</v>
       </c>
-      <c r="J424" t="s">
+      <c r="J424" s="16" t="s">
         <v>2012</v>
       </c>
-      <c r="K424" t="s">
+      <c r="K424" s="16" t="s">
         <v>182</v>
       </c>
     </row>
@@ -26169,108 +26191,108 @@
         <v>182</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
+    <row r="426" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="11" t="s">
         <v>1998</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426" s="11" t="s">
         <v>1999</v>
       </c>
-      <c r="C426" t="s">
+      <c r="C426" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D426" t="s">
+      <c r="D426" s="11" t="s">
         <v>2340</v>
       </c>
-      <c r="E426" t="s">
-        <v>13</v>
-      </c>
-      <c r="F426" t="s">
+      <c r="E426" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F426" s="11" t="s">
         <v>2233</v>
       </c>
-      <c r="G426" t="s">
+      <c r="G426" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H426" t="s">
+      <c r="H426" s="11" t="s">
         <v>2341</v>
       </c>
-      <c r="I426" t="s">
+      <c r="I426" s="11" t="s">
         <v>2342</v>
       </c>
-      <c r="J426" t="s">
+      <c r="J426" s="11" t="s">
         <v>2003</v>
       </c>
-      <c r="K426" t="s">
+      <c r="K426" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+    <row r="427" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="11" t="s">
         <v>1998</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="11" t="s">
         <v>1999</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C427" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D427" t="s">
+      <c r="D427" s="11" t="s">
         <v>2343</v>
       </c>
-      <c r="E427" t="s">
-        <v>13</v>
-      </c>
-      <c r="F427" t="s">
+      <c r="E427" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F427" s="11" t="s">
         <v>2233</v>
       </c>
-      <c r="G427" t="s">
+      <c r="G427" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H427" t="s">
+      <c r="H427" s="11" t="s">
         <v>2344</v>
       </c>
-      <c r="I427" t="s">
+      <c r="I427" s="11" t="s">
         <v>2342</v>
       </c>
-      <c r="J427" t="s">
+      <c r="J427" s="11" t="s">
         <v>2003</v>
       </c>
-      <c r="K427" t="s">
+      <c r="K427" s="11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
+    <row r="428" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="11" t="s">
         <v>2345</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428" s="11" t="s">
         <v>2346</v>
       </c>
-      <c r="C428" t="s">
+      <c r="C428" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D428" t="s">
+      <c r="D428" s="11" t="s">
         <v>2347</v>
       </c>
-      <c r="E428" t="s">
-        <v>13</v>
-      </c>
-      <c r="F428" t="s">
+      <c r="E428" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F428" s="11" t="s">
         <v>2233</v>
       </c>
-      <c r="G428" t="s">
+      <c r="G428" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H428" t="s">
+      <c r="H428" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I428" t="s">
+      <c r="I428" s="11" t="s">
         <v>2347</v>
       </c>
-      <c r="J428" t="s">
+      <c r="J428" s="11" t="s">
         <v>2348</v>
       </c>
-      <c r="K428" t="s">
+      <c r="K428" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -26309,143 +26331,143 @@
         <v>172</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
+    <row r="430" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="8" t="s">
         <v>2355</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430" s="8" t="s">
         <v>2356</v>
       </c>
-      <c r="C430" t="s">
+      <c r="C430" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D430" t="s">
+      <c r="D430" s="8" t="s">
         <v>2357</v>
       </c>
-      <c r="E430" t="s">
-        <v>13</v>
-      </c>
-      <c r="F430" t="s">
+      <c r="E430" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F430" s="8" t="s">
         <v>2233</v>
       </c>
-      <c r="G430" t="s">
+      <c r="G430" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H430" t="s">
+      <c r="H430" s="8" t="s">
         <v>2358</v>
       </c>
-      <c r="I430" t="s">
+      <c r="I430" s="8" t="s">
         <v>2357</v>
       </c>
-      <c r="J430" t="s">
+      <c r="J430" s="8" t="s">
         <v>2359</v>
       </c>
-      <c r="K430" t="s">
+      <c r="K430" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
+    <row r="431" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="17" t="s">
         <v>2360</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B431" s="17" t="s">
         <v>2361</v>
       </c>
-      <c r="C431" t="s">
+      <c r="C431" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D431" t="s">
+      <c r="D431" s="17" t="s">
         <v>2362</v>
       </c>
-      <c r="E431" t="s">
-        <v>13</v>
-      </c>
-      <c r="F431" t="s">
+      <c r="E431" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F431" s="17" t="s">
         <v>2233</v>
       </c>
-      <c r="G431" t="s">
+      <c r="G431" s="17" t="s">
         <v>888</v>
       </c>
-      <c r="H431" t="s">
+      <c r="H431" s="17" t="s">
         <v>2363</v>
       </c>
-      <c r="I431" t="s">
+      <c r="I431" s="17" t="s">
         <v>2362</v>
       </c>
-      <c r="J431" t="s">
+      <c r="J431" s="17" t="s">
         <v>2364</v>
       </c>
-      <c r="K431" t="s">
+      <c r="K431" s="17" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
+    <row r="432" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="11" t="s">
         <v>2365</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432" s="11" t="s">
         <v>2366</v>
       </c>
-      <c r="C432" t="s">
+      <c r="C432" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D432" t="s">
+      <c r="D432" s="11" t="s">
         <v>2367</v>
       </c>
-      <c r="E432" t="s">
-        <v>13</v>
-      </c>
-      <c r="F432" t="s">
+      <c r="E432" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F432" s="11" t="s">
         <v>2233</v>
       </c>
-      <c r="G432" t="s">
+      <c r="G432" s="11" t="s">
         <v>888</v>
       </c>
-      <c r="H432" t="s">
+      <c r="H432" s="11" t="s">
         <v>2363</v>
       </c>
-      <c r="I432" t="s">
+      <c r="I432" s="11" t="s">
         <v>2367</v>
       </c>
-      <c r="J432" t="s">
+      <c r="J432" s="11" t="s">
         <v>2368</v>
       </c>
-      <c r="K432" t="s">
+      <c r="K432" s="11" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+    <row r="433" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="11" t="s">
         <v>2369</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B433" s="11" t="s">
         <v>2370</v>
       </c>
-      <c r="C433" t="s">
+      <c r="C433" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D433" t="s">
+      <c r="D433" s="11" t="s">
         <v>2371</v>
       </c>
-      <c r="E433" t="s">
-        <v>13</v>
-      </c>
-      <c r="F433" t="s">
+      <c r="E433" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F433" s="11" t="s">
         <v>2233</v>
       </c>
-      <c r="G433" t="s">
+      <c r="G433" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H433" t="s">
+      <c r="H433" s="11" t="s">
         <v>2372</v>
       </c>
-      <c r="I433" t="s">
+      <c r="I433" s="11" t="s">
         <v>2373</v>
       </c>
-      <c r="J433" t="s">
+      <c r="J433" s="11" t="s">
         <v>1997</v>
       </c>
-      <c r="K433" t="s">
+      <c r="K433" s="11" t="s">
         <v>182</v>
       </c>
     </row>
@@ -26519,38 +26541,38 @@
         <v>219</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
+    <row r="436" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="17" t="s">
         <v>2384</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436" s="17" t="s">
         <v>2385</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C436" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D436" t="s">
+      <c r="D436" s="17" t="s">
         <v>2386</v>
       </c>
-      <c r="E436" t="s">
-        <v>13</v>
-      </c>
-      <c r="F436" t="s">
+      <c r="E436" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F436" s="17" t="s">
         <v>2233</v>
       </c>
-      <c r="G436" t="s">
+      <c r="G436" s="17" t="s">
         <v>2387</v>
       </c>
-      <c r="H436" t="s">
+      <c r="H436" s="17" t="s">
         <v>2388</v>
       </c>
-      <c r="I436" t="s">
+      <c r="I436" s="17" t="s">
         <v>2386</v>
       </c>
-      <c r="J436" t="s">
+      <c r="J436" s="17" t="s">
         <v>2389</v>
       </c>
-      <c r="K436" t="s">
+      <c r="K436" s="17" t="s">
         <v>2387</v>
       </c>
     </row>
@@ -26589,38 +26611,38 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
+    <row r="438" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="8" t="s">
         <v>2395</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B438" s="8" t="s">
         <v>2396</v>
       </c>
-      <c r="C438" t="s">
+      <c r="C438" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D438" t="s">
+      <c r="D438" s="8" t="s">
         <v>2397</v>
       </c>
-      <c r="E438" t="s">
-        <v>13</v>
-      </c>
-      <c r="F438" t="s">
+      <c r="E438" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F438" s="8" t="s">
         <v>2233</v>
       </c>
-      <c r="G438" t="s">
+      <c r="G438" s="8" t="s">
         <v>1340</v>
       </c>
-      <c r="H438" t="s">
+      <c r="H438" s="8" t="s">
         <v>1789</v>
       </c>
-      <c r="I438" t="s">
+      <c r="I438" s="8" t="s">
         <v>2397</v>
       </c>
-      <c r="J438" t="s">
+      <c r="J438" s="8" t="s">
         <v>2398</v>
       </c>
-      <c r="K438" t="s">
+      <c r="K438" s="8" t="s">
         <v>1340</v>
       </c>
     </row>
@@ -26694,38 +26716,38 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
+    <row r="441" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="8" t="s">
         <v>2408</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B441" s="8" t="s">
         <v>2409</v>
       </c>
-      <c r="C441" t="s">
+      <c r="C441" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D441" t="s">
+      <c r="D441" s="8" t="s">
         <v>2410</v>
       </c>
-      <c r="E441" t="s">
-        <v>13</v>
-      </c>
-      <c r="F441" t="s">
+      <c r="E441" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F441" s="8" t="s">
         <v>2233</v>
       </c>
-      <c r="G441" t="s">
+      <c r="G441" s="8" t="s">
         <v>2411</v>
       </c>
-      <c r="H441" t="s">
+      <c r="H441" s="8" t="s">
         <v>2412</v>
       </c>
-      <c r="I441" t="s">
+      <c r="I441" s="8" t="s">
         <v>2410</v>
       </c>
-      <c r="J441" t="s">
+      <c r="J441" s="8" t="s">
         <v>2413</v>
       </c>
-      <c r="K441" t="s">
+      <c r="K441" s="8" t="s">
         <v>2411</v>
       </c>
     </row>
@@ -26764,38 +26786,38 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
+    <row r="443" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="17" t="s">
         <v>2420</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B443" s="17" t="s">
         <v>2421</v>
       </c>
-      <c r="C443" t="s">
+      <c r="C443" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D443" t="s">
+      <c r="D443" s="17" t="s">
         <v>2422</v>
       </c>
-      <c r="E443" t="s">
-        <v>13</v>
-      </c>
-      <c r="F443" t="s">
+      <c r="E443" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F443" s="17" t="s">
         <v>2233</v>
       </c>
-      <c r="G443" t="s">
+      <c r="G443" s="17" t="s">
         <v>2090</v>
       </c>
-      <c r="H443" t="s">
+      <c r="H443" s="17" t="s">
         <v>2423</v>
       </c>
-      <c r="I443" t="s">
+      <c r="I443" s="17" t="s">
         <v>2422</v>
       </c>
-      <c r="J443" t="s">
+      <c r="J443" s="17" t="s">
         <v>2424</v>
       </c>
-      <c r="K443" t="s">
+      <c r="K443" s="17" t="s">
         <v>2090</v>
       </c>
     </row>
@@ -26834,38 +26856,38 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
+    <row r="445" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="8" t="s">
         <v>2429</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B445" s="8" t="s">
         <v>2430</v>
       </c>
-      <c r="C445" t="s">
+      <c r="C445" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D445" t="s">
+      <c r="D445" s="8" t="s">
         <v>2431</v>
       </c>
-      <c r="E445" t="s">
-        <v>13</v>
-      </c>
-      <c r="F445" t="s">
+      <c r="E445" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F445" s="8" t="s">
         <v>2233</v>
       </c>
-      <c r="G445" t="s">
+      <c r="G445" s="8" t="s">
         <v>2432</v>
       </c>
-      <c r="H445" t="s">
+      <c r="H445" s="8" t="s">
         <v>2433</v>
       </c>
-      <c r="I445" t="s">
+      <c r="I445" s="8" t="s">
         <v>2431</v>
       </c>
-      <c r="J445" t="s">
+      <c r="J445" s="8" t="s">
         <v>2434</v>
       </c>
-      <c r="K445" t="s">
+      <c r="K445" s="8" t="s">
         <v>2432</v>
       </c>
     </row>
@@ -26904,38 +26926,38 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
+    <row r="447" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="17" t="s">
         <v>2439</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447" s="17" t="s">
         <v>2440</v>
       </c>
-      <c r="C447" t="s">
+      <c r="C447" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D447" t="s">
+      <c r="D447" s="17" t="s">
         <v>2441</v>
       </c>
-      <c r="E447" t="s">
-        <v>13</v>
-      </c>
-      <c r="F447" t="s">
+      <c r="E447" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F447" s="17" t="s">
         <v>2233</v>
       </c>
-      <c r="G447" t="s">
+      <c r="G447" s="17" t="s">
         <v>1376</v>
       </c>
-      <c r="H447" t="s">
+      <c r="H447" s="17" t="s">
         <v>2442</v>
       </c>
-      <c r="I447" t="s">
+      <c r="I447" s="17" t="s">
         <v>2441</v>
       </c>
-      <c r="J447" t="s">
+      <c r="J447" s="17" t="s">
         <v>2443</v>
       </c>
-      <c r="K447" t="s">
+      <c r="K447" s="17" t="s">
         <v>1376</v>
       </c>
     </row>
@@ -27009,38 +27031,38 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
+    <row r="450" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="8" t="s">
         <v>2456</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B450" s="8" t="s">
         <v>2457</v>
       </c>
-      <c r="C450" t="s">
+      <c r="C450" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D450" t="s">
+      <c r="D450" s="8" t="s">
         <v>2458</v>
       </c>
-      <c r="E450" t="s">
-        <v>13</v>
-      </c>
-      <c r="F450" t="s">
+      <c r="E450" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F450" s="8" t="s">
         <v>2233</v>
       </c>
-      <c r="G450" t="s">
+      <c r="G450" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="H450" t="s">
+      <c r="H450" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I450" t="s">
+      <c r="I450" s="8" t="s">
         <v>2458</v>
       </c>
-      <c r="J450" t="s">
+      <c r="J450" s="8" t="s">
         <v>2459</v>
       </c>
-      <c r="K450" t="s">
+      <c r="K450" s="8" t="s">
         <v>447</v>
       </c>
     </row>
@@ -27079,73 +27101,73 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
+    <row r="452" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="11" t="s">
         <v>2464</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B452" s="11" t="s">
         <v>2465</v>
       </c>
-      <c r="C452" t="s">
+      <c r="C452" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D452" t="s">
+      <c r="D452" s="11" t="s">
         <v>2466</v>
       </c>
-      <c r="E452" t="s">
-        <v>13</v>
-      </c>
-      <c r="F452" t="s">
+      <c r="E452" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F452" s="11" t="s">
         <v>2233</v>
       </c>
-      <c r="G452" t="s">
+      <c r="G452" s="11" t="s">
         <v>800</v>
       </c>
-      <c r="H452" t="s">
+      <c r="H452" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I452" t="s">
+      <c r="I452" s="11" t="s">
         <v>2466</v>
       </c>
-      <c r="J452" t="s">
+      <c r="J452" s="11" t="s">
         <v>2467</v>
       </c>
-      <c r="K452" t="s">
+      <c r="K452" s="11" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
+    <row r="453" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="17" t="s">
         <v>1677</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B453" s="17" t="s">
         <v>1678</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C453" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D453" t="s">
+      <c r="D453" s="17" t="s">
         <v>1679</v>
       </c>
-      <c r="E453" t="s">
-        <v>13</v>
-      </c>
-      <c r="F453" t="s">
+      <c r="E453" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F453" s="17" t="s">
         <v>2233</v>
       </c>
-      <c r="G453" t="s">
+      <c r="G453" s="17" t="s">
         <v>569</v>
       </c>
-      <c r="H453" t="s">
+      <c r="H453" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I453" t="s">
+      <c r="I453" s="17" t="s">
         <v>1679</v>
       </c>
-      <c r="J453" t="s">
+      <c r="J453" s="17" t="s">
         <v>1681</v>
       </c>
-      <c r="K453" t="s">
+      <c r="K453" s="17" t="s">
         <v>569</v>
       </c>
     </row>
@@ -27184,38 +27206,38 @@
         <v>26</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
+    <row r="455" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="17" t="s">
         <v>2469</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B455" s="17" t="s">
         <v>2470</v>
       </c>
-      <c r="C455" t="s">
+      <c r="C455" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D455" t="s">
+      <c r="D455" s="17" t="s">
         <v>2471</v>
       </c>
-      <c r="E455" t="s">
-        <v>13</v>
-      </c>
-      <c r="F455" t="s">
+      <c r="E455" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F455" s="17" t="s">
         <v>2233</v>
       </c>
-      <c r="G455" t="s">
+      <c r="G455" s="17" t="s">
         <v>2472</v>
       </c>
-      <c r="H455" t="s">
+      <c r="H455" s="17" t="s">
         <v>2473</v>
       </c>
-      <c r="I455" t="s">
+      <c r="I455" s="17" t="s">
         <v>2471</v>
       </c>
-      <c r="J455" t="s">
+      <c r="J455" s="17" t="s">
         <v>2474</v>
       </c>
-      <c r="K455" t="s">
+      <c r="K455" s="17" t="s">
         <v>2472</v>
       </c>
     </row>
@@ -27254,38 +27276,38 @@
         <v>69</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
+    <row r="457" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="8" t="s">
         <v>2480</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B457" s="8" t="s">
         <v>2481</v>
       </c>
-      <c r="C457" t="s">
+      <c r="C457" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D457" t="s">
+      <c r="D457" s="8" t="s">
         <v>2482</v>
       </c>
-      <c r="E457" t="s">
-        <v>13</v>
-      </c>
-      <c r="F457" t="s">
+      <c r="E457" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F457" s="8" t="s">
         <v>2233</v>
       </c>
-      <c r="G457" t="s">
+      <c r="G457" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="H457" t="s">
+      <c r="H457" s="8" t="s">
         <v>2483</v>
       </c>
-      <c r="I457" t="s">
+      <c r="I457" s="8" t="s">
         <v>2482</v>
       </c>
-      <c r="J457" t="s">
+      <c r="J457" s="8" t="s">
         <v>2484</v>
       </c>
-      <c r="K457" t="s">
+      <c r="K457" s="8" t="s">
         <v>447</v>
       </c>
     </row>
@@ -27394,38 +27416,38 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
+    <row r="461" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="17" t="s">
         <v>2494</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B461" s="17" t="s">
         <v>2495</v>
       </c>
-      <c r="C461" t="s">
+      <c r="C461" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D461" t="s">
+      <c r="D461" s="17" t="s">
         <v>2496</v>
       </c>
-      <c r="E461" t="s">
-        <v>13</v>
-      </c>
-      <c r="F461" t="s">
+      <c r="E461" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F461" s="17" t="s">
         <v>2233</v>
       </c>
-      <c r="G461" t="s">
+      <c r="G461" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H461" t="s">
+      <c r="H461" s="17" t="s">
         <v>2497</v>
       </c>
-      <c r="I461" t="s">
+      <c r="I461" s="17" t="s">
         <v>2496</v>
       </c>
-      <c r="J461" t="s">
+      <c r="J461" s="17" t="s">
         <v>2498</v>
       </c>
-      <c r="K461" t="s">
+      <c r="K461" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -27499,73 +27521,73 @@
         <v>219</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
+    <row r="464" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="11" t="s">
         <v>2507</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B464" s="11" t="s">
         <v>2508</v>
       </c>
-      <c r="C464" t="s">
+      <c r="C464" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D464" t="s">
+      <c r="D464" s="11" t="s">
         <v>2509</v>
       </c>
-      <c r="E464" t="s">
-        <v>13</v>
-      </c>
-      <c r="F464" t="s">
+      <c r="E464" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F464" s="11" t="s">
         <v>2233</v>
       </c>
-      <c r="G464" t="s">
+      <c r="G464" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="H464" t="s">
+      <c r="H464" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I464" t="s">
+      <c r="I464" s="11" t="s">
         <v>2509</v>
       </c>
-      <c r="J464" t="s">
+      <c r="J464" s="11" t="s">
         <v>2510</v>
       </c>
-      <c r="K464" t="s">
+      <c r="K464" s="11" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
+    <row r="465" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="11" t="s">
         <v>2511</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B465" s="11" t="s">
         <v>2512</v>
       </c>
-      <c r="C465" t="s">
+      <c r="C465" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D465" t="s">
+      <c r="D465" s="11" t="s">
         <v>2513</v>
       </c>
-      <c r="E465" t="s">
-        <v>13</v>
-      </c>
-      <c r="F465" t="s">
+      <c r="E465" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F465" s="11" t="s">
         <v>2233</v>
       </c>
-      <c r="G465" t="s">
+      <c r="G465" s="11" t="s">
         <v>2514</v>
       </c>
-      <c r="H465" t="s">
+      <c r="H465" s="11" t="s">
         <v>2515</v>
       </c>
-      <c r="I465" t="s">
+      <c r="I465" s="11" t="s">
         <v>2513</v>
       </c>
-      <c r="J465" t="s">
+      <c r="J465" s="11" t="s">
         <v>2516</v>
       </c>
-      <c r="K465" t="s">
+      <c r="K465" s="11" t="s">
         <v>2514</v>
       </c>
     </row>
@@ -27674,108 +27696,108 @@
         <v>182</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
+    <row r="469" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="11" t="s">
         <v>2526</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B469" s="11" t="s">
         <v>2527</v>
       </c>
-      <c r="C469" t="s">
+      <c r="C469" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D469" t="s">
+      <c r="D469" s="11" t="s">
         <v>2528</v>
       </c>
-      <c r="E469" t="s">
-        <v>13</v>
-      </c>
-      <c r="F469" t="s">
+      <c r="E469" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F469" s="11" t="s">
         <v>2233</v>
       </c>
-      <c r="G469" t="s">
+      <c r="G469" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H469" t="s">
+      <c r="H469" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I469" t="s">
+      <c r="I469" s="11" t="s">
         <v>2528</v>
       </c>
-      <c r="J469" t="s">
+      <c r="J469" s="11" t="s">
         <v>2529</v>
       </c>
-      <c r="K469" t="s">
+      <c r="K469" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
+    <row r="470" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="17" t="s">
         <v>2530</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B470" s="17" t="s">
         <v>2531</v>
       </c>
-      <c r="C470" t="s">
+      <c r="C470" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D470" t="s">
+      <c r="D470" s="17" t="s">
         <v>2532</v>
       </c>
-      <c r="E470" t="s">
-        <v>13</v>
-      </c>
-      <c r="F470" t="s">
+      <c r="E470" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F470" s="17" t="s">
         <v>2233</v>
       </c>
-      <c r="G470" t="s">
+      <c r="G470" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="H470" t="s">
+      <c r="H470" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="I470" t="s">
+      <c r="I470" s="17" t="s">
         <v>2532</v>
       </c>
-      <c r="J470" t="s">
+      <c r="J470" s="17" t="s">
         <v>2533</v>
       </c>
-      <c r="K470" t="s">
+      <c r="K470" s="17" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
+    <row r="471" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="17" t="s">
         <v>2534</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B471" s="17" t="s">
         <v>2535</v>
       </c>
-      <c r="C471" t="s">
+      <c r="C471" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D471" t="s">
+      <c r="D471" s="17" t="s">
         <v>2536</v>
       </c>
-      <c r="E471" t="s">
-        <v>13</v>
-      </c>
-      <c r="F471" t="s">
+      <c r="E471" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F471" s="17" t="s">
         <v>2233</v>
       </c>
-      <c r="G471" t="s">
+      <c r="G471" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="H471" t="s">
+      <c r="H471" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="I471" t="s">
+      <c r="I471" s="17" t="s">
         <v>2536</v>
       </c>
-      <c r="J471" t="s">
+      <c r="J471" s="17" t="s">
         <v>2537</v>
       </c>
-      <c r="K471" t="s">
+      <c r="K471" s="17" t="s">
         <v>289</v>
       </c>
     </row>
@@ -27919,38 +27941,38 @@
         <v>29</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
+    <row r="476" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="17" t="s">
         <v>2557</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B476" s="17" t="s">
         <v>2558</v>
       </c>
-      <c r="C476" t="s">
+      <c r="C476" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D476" t="s">
+      <c r="D476" s="17" t="s">
         <v>2559</v>
       </c>
-      <c r="E476" t="s">
-        <v>13</v>
-      </c>
-      <c r="F476" t="s">
+      <c r="E476" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F476" s="17" t="s">
         <v>2233</v>
       </c>
-      <c r="G476" t="s">
+      <c r="G476" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="H476" t="s">
+      <c r="H476" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="I476" t="s">
+      <c r="I476" s="17" t="s">
         <v>2559</v>
       </c>
-      <c r="J476" t="s">
+      <c r="J476" s="17" t="s">
         <v>2560</v>
       </c>
-      <c r="K476" t="s">
+      <c r="K476" s="17" t="s">
         <v>439</v>
       </c>
     </row>
@@ -28024,38 +28046,38 @@
         <v>172</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
+    <row r="479" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="17" t="s">
         <v>2569</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B479" s="17" t="s">
         <v>2570</v>
       </c>
-      <c r="C479" t="s">
+      <c r="C479" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D479" t="s">
+      <c r="D479" s="17" t="s">
         <v>2571</v>
       </c>
-      <c r="E479" t="s">
-        <v>13</v>
-      </c>
-      <c r="F479" t="s">
+      <c r="E479" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F479" s="17" t="s">
         <v>2233</v>
       </c>
-      <c r="G479" t="s">
+      <c r="G479" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="H479" t="s">
+      <c r="H479" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="I479" t="s">
+      <c r="I479" s="17" t="s">
         <v>2572</v>
       </c>
-      <c r="J479" t="s">
+      <c r="J479" s="17" t="s">
         <v>2573</v>
       </c>
-      <c r="K479" t="s">
+      <c r="K479" s="17" t="s">
         <v>262</v>
       </c>
     </row>
@@ -28094,38 +28116,38 @@
         <v>262</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
+    <row r="481" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="11" t="s">
         <v>2579</v>
       </c>
-      <c r="B481" t="s">
+      <c r="B481" s="11" t="s">
         <v>2580</v>
       </c>
-      <c r="C481" t="s">
+      <c r="C481" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="D481" t="s">
+      <c r="D481" s="11" t="s">
         <v>2581</v>
       </c>
-      <c r="E481" t="s">
-        <v>13</v>
-      </c>
-      <c r="F481" t="s">
+      <c r="E481" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F481" s="11" t="s">
         <v>2233</v>
       </c>
-      <c r="G481" t="s">
-        <v>34</v>
-      </c>
-      <c r="H481" t="s">
+      <c r="G481" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H481" s="11" t="s">
         <v>2582</v>
       </c>
-      <c r="I481" t="s">
+      <c r="I481" s="11" t="s">
         <v>2583</v>
       </c>
-      <c r="J481" t="s">
+      <c r="J481" s="11" t="s">
         <v>2584</v>
       </c>
-      <c r="K481" t="s">
+      <c r="K481" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -28164,38 +28186,38 @@
         <v>289</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
+    <row r="483" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="17" t="s">
         <v>2590</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B483" s="17" t="s">
         <v>2591</v>
       </c>
-      <c r="C483" t="s">
+      <c r="C483" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D483" t="s">
+      <c r="D483" s="17" t="s">
         <v>2592</v>
       </c>
-      <c r="E483" t="s">
-        <v>13</v>
-      </c>
-      <c r="F483" t="s">
+      <c r="E483" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F483" s="17" t="s">
         <v>2233</v>
       </c>
-      <c r="G483" t="s">
-        <v>34</v>
-      </c>
-      <c r="H483" t="s">
+      <c r="G483" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H483" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="I483" t="s">
+      <c r="I483" s="17" t="s">
         <v>2593</v>
       </c>
-      <c r="J483" t="s">
+      <c r="J483" s="17" t="s">
         <v>2594</v>
       </c>
-      <c r="K483" t="s">
+      <c r="K483" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -28234,38 +28256,38 @@
         <v>18</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
+    <row r="485" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="17" t="s">
         <v>2597</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B485" s="17" t="s">
         <v>2598</v>
       </c>
-      <c r="C485" t="s">
+      <c r="C485" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D485" t="s">
+      <c r="D485" s="17" t="s">
         <v>2599</v>
       </c>
-      <c r="E485" t="s">
-        <v>13</v>
-      </c>
-      <c r="F485" t="s">
+      <c r="E485" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F485" s="17" t="s">
         <v>2233</v>
       </c>
-      <c r="G485" t="s">
+      <c r="G485" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="H485" t="s">
+      <c r="H485" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I485" t="s">
+      <c r="I485" s="17" t="s">
         <v>2599</v>
       </c>
-      <c r="J485" t="s">
+      <c r="J485" s="17" t="s">
         <v>2600</v>
       </c>
-      <c r="K485" t="s">
+      <c r="K485" s="17" t="s">
         <v>289</v>
       </c>
     </row>
@@ -28339,38 +28361,38 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
+    <row r="488" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="17" t="s">
         <v>2610</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B488" s="17" t="s">
         <v>2611</v>
       </c>
-      <c r="C488" t="s">
+      <c r="C488" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D488" t="s">
+      <c r="D488" s="17" t="s">
         <v>2612</v>
       </c>
-      <c r="E488" t="s">
-        <v>13</v>
-      </c>
-      <c r="F488" t="s">
+      <c r="E488" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F488" s="17" t="s">
         <v>2233</v>
       </c>
-      <c r="G488" t="s">
-        <v>34</v>
-      </c>
-      <c r="H488" t="s">
+      <c r="G488" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H488" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="I488" t="s">
+      <c r="I488" s="17" t="s">
         <v>2612</v>
       </c>
-      <c r="J488" t="s">
+      <c r="J488" s="17" t="s">
         <v>2613</v>
       </c>
-      <c r="K488" t="s">
+      <c r="K488" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -32749,73 +32771,73 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A614" t="s">
+    <row r="614" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A614" s="8" t="s">
         <v>3027</v>
       </c>
-      <c r="B614" t="s">
+      <c r="B614" s="8" t="s">
         <v>3028</v>
       </c>
-      <c r="C614" t="s">
+      <c r="C614" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D614" t="s">
+      <c r="D614" s="8" t="s">
         <v>3029</v>
       </c>
-      <c r="E614" t="s">
-        <v>13</v>
-      </c>
-      <c r="F614" t="s">
+      <c r="E614" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F614" s="8" t="s">
         <v>2233</v>
       </c>
-      <c r="G614" t="s">
+      <c r="G614" s="8" t="s">
         <v>1563</v>
       </c>
-      <c r="H614" t="s">
+      <c r="H614" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="I614" t="s">
+      <c r="I614" s="8" t="s">
         <v>3029</v>
       </c>
-      <c r="J614" t="s">
+      <c r="J614" s="8" t="s">
         <v>3030</v>
       </c>
-      <c r="K614" t="s">
+      <c r="K614" s="8" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A615" t="s">
+    <row r="615" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A615" s="8" t="s">
         <v>3031</v>
       </c>
-      <c r="B615" t="s">
+      <c r="B615" s="8" t="s">
         <v>3032</v>
       </c>
-      <c r="C615" t="s">
+      <c r="C615" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D615" t="s">
+      <c r="D615" s="8" t="s">
         <v>3033</v>
       </c>
-      <c r="E615" t="s">
-        <v>13</v>
-      </c>
-      <c r="F615" t="s">
+      <c r="E615" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F615" s="8" t="s">
         <v>2233</v>
       </c>
-      <c r="G615" t="s">
+      <c r="G615" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H615" t="s">
+      <c r="H615" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I615" t="s">
+      <c r="I615" s="8" t="s">
         <v>3033</v>
       </c>
-      <c r="J615" t="s">
+      <c r="J615" s="8" t="s">
         <v>3034</v>
       </c>
-      <c r="K615" t="s">
+      <c r="K615" s="8" t="s">
         <v>219</v>
       </c>
     </row>
@@ -33484,38 +33506,38 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A635" t="s">
+    <row r="635" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A635" s="8" t="s">
         <v>3118</v>
       </c>
-      <c r="B635" t="s">
+      <c r="B635" s="8" t="s">
         <v>3119</v>
       </c>
-      <c r="C635" t="s">
+      <c r="C635" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D635" t="s">
+      <c r="D635" s="8" t="s">
         <v>3120</v>
       </c>
-      <c r="E635" t="s">
-        <v>13</v>
-      </c>
-      <c r="F635" t="s">
+      <c r="E635" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F635" s="8" t="s">
         <v>2233</v>
       </c>
-      <c r="G635" t="s">
+      <c r="G635" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="H635" t="s">
+      <c r="H635" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I635" t="s">
+      <c r="I635" s="8" t="s">
         <v>3120</v>
       </c>
-      <c r="J635" t="s">
+      <c r="J635" s="8" t="s">
         <v>3121</v>
       </c>
-      <c r="K635" t="s">
+      <c r="K635" s="8" t="s">
         <v>182</v>
       </c>
     </row>
@@ -34009,38 +34031,38 @@
         <v>3191</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A650" t="s">
+    <row r="650" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A650" s="3" t="s">
         <v>1516</v>
       </c>
-      <c r="B650" t="s">
+      <c r="B650" s="3" t="s">
         <v>3193</v>
       </c>
-      <c r="C650" t="s">
+      <c r="C650" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D650" t="s">
+      <c r="D650" s="3" t="s">
         <v>3194</v>
       </c>
-      <c r="E650" t="s">
-        <v>13</v>
-      </c>
-      <c r="F650" t="s">
+      <c r="E650" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F650" s="3" t="s">
         <v>2233</v>
       </c>
-      <c r="G650" t="s">
+      <c r="G650" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="H650" t="s">
+      <c r="H650" s="3" t="s">
         <v>3195</v>
       </c>
-      <c r="I650" t="s">
+      <c r="I650" s="3" t="s">
         <v>1518</v>
       </c>
-      <c r="J650" t="s">
+      <c r="J650" s="3" t="s">
         <v>3196</v>
       </c>
-      <c r="K650" t="s">
+      <c r="K650" s="3" t="s">
         <v>785</v>
       </c>
     </row>
@@ -34114,143 +34136,143 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A653" t="s">
+    <row r="653" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A653" s="8" t="s">
         <v>3208</v>
       </c>
-      <c r="B653" t="s">
+      <c r="B653" s="8" t="s">
         <v>3209</v>
       </c>
-      <c r="C653" t="s">
+      <c r="C653" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D653" t="s">
+      <c r="D653" s="8" t="s">
         <v>3210</v>
       </c>
-      <c r="E653" t="s">
-        <v>13</v>
-      </c>
-      <c r="F653" t="s">
+      <c r="E653" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F653" s="8" t="s">
         <v>2233</v>
       </c>
-      <c r="G653" t="s">
+      <c r="G653" s="8" t="s">
         <v>2989</v>
       </c>
-      <c r="H653" t="s">
+      <c r="H653" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I653" t="s">
+      <c r="I653" s="8" t="s">
         <v>3210</v>
       </c>
-      <c r="J653" t="s">
+      <c r="J653" s="8" t="s">
         <v>3211</v>
       </c>
-      <c r="K653" t="s">
+      <c r="K653" s="8" t="s">
         <v>2989</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A654" t="s">
+    <row r="654" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A654" s="8" t="s">
         <v>3212</v>
       </c>
-      <c r="B654" t="s">
+      <c r="B654" s="8" t="s">
         <v>3213</v>
       </c>
-      <c r="C654" t="s">
+      <c r="C654" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D654" t="s">
+      <c r="D654" s="8" t="s">
         <v>3214</v>
       </c>
-      <c r="E654" t="s">
-        <v>13</v>
-      </c>
-      <c r="F654" t="s">
+      <c r="E654" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F654" s="8" t="s">
         <v>2233</v>
       </c>
-      <c r="G654" t="s">
+      <c r="G654" s="8" t="s">
         <v>2989</v>
       </c>
-      <c r="H654" t="s">
+      <c r="H654" s="8" t="s">
         <v>3215</v>
       </c>
-      <c r="I654" t="s">
+      <c r="I654" s="8" t="s">
         <v>3214</v>
       </c>
-      <c r="J654" t="s">
+      <c r="J654" s="8" t="s">
         <v>3216</v>
       </c>
-      <c r="K654" t="s">
+      <c r="K654" s="8" t="s">
         <v>2989</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A655" t="s">
+    <row r="655" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A655" s="8" t="s">
         <v>3217</v>
       </c>
-      <c r="B655" t="s">
+      <c r="B655" s="8" t="s">
         <v>3218</v>
       </c>
-      <c r="C655" t="s">
+      <c r="C655" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="D655" t="s">
+      <c r="D655" s="8" t="s">
         <v>3219</v>
       </c>
-      <c r="E655" t="s">
-        <v>13</v>
-      </c>
-      <c r="F655" t="s">
+      <c r="E655" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F655" s="8" t="s">
         <v>2233</v>
       </c>
-      <c r="G655" t="s">
+      <c r="G655" s="8" t="s">
         <v>1288</v>
       </c>
-      <c r="H655" t="s">
+      <c r="H655" s="8" t="s">
         <v>3220</v>
       </c>
-      <c r="I655" t="s">
+      <c r="I655" s="8" t="s">
         <v>3219</v>
       </c>
-      <c r="J655" t="s">
+      <c r="J655" s="8" t="s">
         <v>3221</v>
       </c>
-      <c r="K655" t="s">
+      <c r="K655" s="8" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A656" t="s">
+    <row r="656" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A656" s="8" t="s">
         <v>3222</v>
       </c>
-      <c r="B656" t="s">
+      <c r="B656" s="8" t="s">
         <v>3223</v>
       </c>
-      <c r="C656" t="s">
+      <c r="C656" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="D656" t="s">
+      <c r="D656" s="8" t="s">
         <v>3224</v>
       </c>
-      <c r="E656" t="s">
-        <v>13</v>
-      </c>
-      <c r="F656" t="s">
+      <c r="E656" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F656" s="8" t="s">
         <v>2233</v>
       </c>
-      <c r="G656" t="s">
+      <c r="G656" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="H656" t="s">
+      <c r="H656" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I656" t="s">
+      <c r="I656" s="8" t="s">
         <v>3224</v>
       </c>
-      <c r="J656" t="s">
+      <c r="J656" s="8" t="s">
         <v>3225</v>
       </c>
-      <c r="K656" t="s">
+      <c r="K656" s="8" t="s">
         <v>182</v>
       </c>
     </row>
@@ -35094,73 +35116,73 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A681" t="s">
+    <row r="681" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A681" s="8" t="s">
         <v>3309</v>
       </c>
-      <c r="B681" t="s">
+      <c r="B681" s="8" t="s">
         <v>3310</v>
       </c>
-      <c r="C681" t="s">
+      <c r="C681" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D681" t="s">
+      <c r="D681" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="E681" t="s">
-        <v>13</v>
-      </c>
-      <c r="F681" t="s">
+      <c r="E681" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F681" s="8" t="s">
         <v>2233</v>
       </c>
-      <c r="G681" t="s">
+      <c r="G681" s="8" t="s">
         <v>2940</v>
       </c>
-      <c r="H681" t="s">
+      <c r="H681" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I681" t="s">
+      <c r="I681" s="8" t="s">
         <v>3311</v>
       </c>
-      <c r="J681" t="s">
+      <c r="J681" s="8" t="s">
         <v>3312</v>
       </c>
-      <c r="K681" t="s">
+      <c r="K681" s="8" t="s">
         <v>2940</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A682" t="s">
+    <row r="682" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A682" s="8" t="s">
         <v>3313</v>
       </c>
-      <c r="B682" t="s">
+      <c r="B682" s="8" t="s">
         <v>3314</v>
       </c>
-      <c r="C682" t="s">
+      <c r="C682" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D682" t="s">
+      <c r="D682" s="8" t="s">
         <v>3315</v>
       </c>
-      <c r="E682" t="s">
-        <v>13</v>
-      </c>
-      <c r="F682" t="s">
+      <c r="E682" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F682" s="8" t="s">
         <v>2233</v>
       </c>
-      <c r="G682" t="s">
+      <c r="G682" s="8" t="s">
         <v>2940</v>
       </c>
-      <c r="H682" t="s">
+      <c r="H682" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I682" t="s">
+      <c r="I682" s="8" t="s">
         <v>3315</v>
       </c>
-      <c r="J682" t="s">
+      <c r="J682" s="8" t="s">
         <v>3316</v>
       </c>
-      <c r="K682" t="s">
+      <c r="K682" s="8" t="s">
         <v>2940</v>
       </c>
     </row>
@@ -35339,38 +35361,38 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A688" t="s">
+    <row r="688" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A688" s="3" t="s">
         <v>3336</v>
       </c>
-      <c r="B688" t="s">
+      <c r="B688" s="3" t="s">
         <v>3337</v>
       </c>
-      <c r="C688" t="s">
+      <c r="C688" s="3" t="s">
         <v>1313</v>
       </c>
-      <c r="D688" t="s">
+      <c r="D688" s="3" t="s">
         <v>3338</v>
       </c>
-      <c r="E688" t="s">
-        <v>13</v>
-      </c>
-      <c r="F688" t="s">
+      <c r="E688" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F688" s="3" t="s">
         <v>2233</v>
       </c>
-      <c r="G688" t="s">
+      <c r="G688" s="3" t="s">
         <v>3339</v>
       </c>
-      <c r="H688" t="s">
+      <c r="H688" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I688" t="s">
+      <c r="I688" s="3" t="s">
         <v>3338</v>
       </c>
-      <c r="J688" t="s">
+      <c r="J688" s="3" t="s">
         <v>3340</v>
       </c>
-      <c r="K688" t="s">
+      <c r="K688" s="3" t="s">
         <v>3339</v>
       </c>
     </row>
@@ -35409,108 +35431,108 @@
         <v>34</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A690" t="s">
+    <row r="690" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A690" s="3" t="s">
         <v>3345</v>
       </c>
-      <c r="B690" t="s">
+      <c r="B690" s="3" t="s">
         <v>3346</v>
       </c>
-      <c r="C690" t="s">
+      <c r="C690" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D690" t="s">
+      <c r="D690" s="3" t="s">
         <v>3347</v>
       </c>
-      <c r="E690" t="s">
-        <v>13</v>
-      </c>
-      <c r="F690" t="s">
+      <c r="E690" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F690" s="3" t="s">
         <v>2233</v>
       </c>
-      <c r="G690" t="s">
+      <c r="G690" s="3" t="s">
         <v>1596</v>
       </c>
-      <c r="H690" t="s">
+      <c r="H690" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I690" t="s">
+      <c r="I690" s="3" t="s">
         <v>3347</v>
       </c>
-      <c r="J690" t="s">
+      <c r="J690" s="3" t="s">
         <v>3348</v>
       </c>
-      <c r="K690" t="s">
+      <c r="K690" s="3" t="s">
         <v>1596</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A691" t="s">
+    <row r="691" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A691" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B691" t="s">
+      <c r="B691" s="3" t="s">
         <v>3349</v>
       </c>
-      <c r="C691" t="s">
+      <c r="C691" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D691" t="s">
+      <c r="D691" s="3" t="s">
         <v>3350</v>
       </c>
-      <c r="E691" t="s">
-        <v>13</v>
-      </c>
-      <c r="F691" t="s">
+      <c r="E691" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F691" s="3" t="s">
         <v>2233</v>
       </c>
-      <c r="G691" t="s">
+      <c r="G691" s="3" t="s">
         <v>3351</v>
       </c>
-      <c r="H691" t="s">
+      <c r="H691" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I691" t="s">
+      <c r="I691" s="3" t="s">
         <v>3350</v>
       </c>
-      <c r="J691" t="s">
+      <c r="J691" s="3" t="s">
         <v>3352</v>
       </c>
-      <c r="K691" t="s">
+      <c r="K691" s="3" t="s">
         <v>3351</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A692" t="s">
+    <row r="692" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A692" s="8" t="s">
         <v>3353</v>
       </c>
-      <c r="B692" t="s">
+      <c r="B692" s="8" t="s">
         <v>3354</v>
       </c>
-      <c r="C692" t="s">
+      <c r="C692" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D692" t="s">
+      <c r="D692" s="8" t="s">
         <v>3355</v>
       </c>
-      <c r="E692" t="s">
-        <v>13</v>
-      </c>
-      <c r="F692" t="s">
+      <c r="E692" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F692" s="8" t="s">
         <v>2233</v>
       </c>
-      <c r="G692" t="s">
+      <c r="G692" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H692" t="s">
+      <c r="H692" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I692" t="s">
+      <c r="I692" s="8" t="s">
         <v>3355</v>
       </c>
-      <c r="J692" t="s">
+      <c r="J692" s="8" t="s">
         <v>3356</v>
       </c>
-      <c r="K692" t="s">
+      <c r="K692" s="8" t="s">
         <v>219</v>
       </c>
     </row>
@@ -35654,53 +35676,53 @@
         <v>3372</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A697" t="s">
+    <row r="697" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A697" s="3" t="s">
         <v>3374</v>
       </c>
-      <c r="B697" t="s">
+      <c r="B697" s="3" t="s">
         <v>3375</v>
       </c>
-      <c r="C697" t="s">
+      <c r="C697" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D697" t="s">
+      <c r="D697" s="3" t="s">
+        <v>3427</v>
+      </c>
+      <c r="E697" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F697" s="3" t="s">
+        <v>2233</v>
+      </c>
+      <c r="G697" s="3" t="s">
         <v>3376</v>
       </c>
-      <c r="E697" t="s">
-        <v>13</v>
-      </c>
-      <c r="F697" t="s">
-        <v>2233</v>
-      </c>
-      <c r="G697" t="s">
+      <c r="H697" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I697" s="3" t="s">
         <v>3377</v>
       </c>
-      <c r="H697" t="s">
-        <v>67</v>
-      </c>
-      <c r="I697" t="s">
+      <c r="J697" s="3" t="s">
         <v>3378</v>
       </c>
-      <c r="J697" t="s">
-        <v>3379</v>
-      </c>
-      <c r="K697" t="s">
-        <v>3377</v>
+      <c r="K697" s="3" t="s">
+        <v>3376</v>
       </c>
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B698" t="s">
         <v>3380</v>
-      </c>
-      <c r="B698" t="s">
-        <v>3381</v>
       </c>
       <c r="C698" t="s">
         <v>46</v>
       </c>
       <c r="D698" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="E698" t="s">
         <v>13</v>
@@ -35726,16 +35748,16 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B699" t="s">
         <v>3383</v>
-      </c>
-      <c r="B699" t="s">
-        <v>3384</v>
       </c>
       <c r="C699" t="s">
         <v>39</v>
       </c>
       <c r="D699" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="E699" t="s">
         <v>13</v>
@@ -35744,33 +35766,33 @@
         <v>2233</v>
       </c>
       <c r="G699" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="H699" t="s">
         <v>1254</v>
       </c>
       <c r="I699" t="s">
+        <v>3386</v>
+      </c>
+      <c r="J699" t="s">
         <v>3387</v>
       </c>
-      <c r="J699" t="s">
-        <v>3388</v>
-      </c>
       <c r="K699" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B700" t="s">
         <v>3389</v>
-      </c>
-      <c r="B700" t="s">
-        <v>3390</v>
       </c>
       <c r="C700" t="s">
         <v>39</v>
       </c>
       <c r="D700" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="E700" t="s">
         <v>13</v>
@@ -35782,13 +35804,13 @@
         <v>692</v>
       </c>
       <c r="H700" t="s">
+        <v>3391</v>
+      </c>
+      <c r="I700" t="s">
         <v>3392</v>
       </c>
-      <c r="I700" t="s">
+      <c r="J700" t="s">
         <v>3393</v>
-      </c>
-      <c r="J700" t="s">
-        <v>3394</v>
       </c>
       <c r="K700" t="s">
         <v>692</v>
@@ -35796,16 +35818,16 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="B701" t="s">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="C701" t="s">
         <v>39</v>
       </c>
       <c r="D701" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="E701" t="s">
         <v>13</v>
@@ -35817,13 +35839,13 @@
         <v>692</v>
       </c>
       <c r="H701" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="I701" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="J701" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="K701" t="s">
         <v>692</v>
@@ -35831,7 +35853,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="B702" t="s">
         <v>931</v>
@@ -35840,7 +35862,7 @@
         <v>104</v>
       </c>
       <c r="D702" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="E702" t="s">
         <v>13</v>
@@ -35849,33 +35871,33 @@
         <v>2233</v>
       </c>
       <c r="G702" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="H702" t="s">
         <v>1771</v>
       </c>
       <c r="I702" t="s">
+        <v>3399</v>
+      </c>
+      <c r="J702" t="s">
         <v>3400</v>
       </c>
-      <c r="J702" t="s">
-        <v>3401</v>
-      </c>
       <c r="K702" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B703" t="s">
         <v>3402</v>
-      </c>
-      <c r="B703" t="s">
-        <v>3403</v>
       </c>
       <c r="C703" t="s">
         <v>97</v>
       </c>
       <c r="D703" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="E703" t="s">
         <v>13</v>
@@ -35884,33 +35906,33 @@
         <v>2233</v>
       </c>
       <c r="G703" t="s">
+        <v>3404</v>
+      </c>
+      <c r="H703" t="s">
+        <v>3391</v>
+      </c>
+      <c r="I703" t="s">
         <v>3405</v>
       </c>
-      <c r="H703" t="s">
-        <v>3392</v>
-      </c>
-      <c r="I703" t="s">
+      <c r="J703" t="s">
         <v>3406</v>
       </c>
-      <c r="J703" t="s">
-        <v>3407</v>
-      </c>
       <c r="K703" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B704" t="s">
         <v>3408</v>
-      </c>
-      <c r="B704" t="s">
-        <v>3409</v>
       </c>
       <c r="C704" t="s">
         <v>97</v>
       </c>
       <c r="D704" t="s">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="E704" t="s">
         <v>13</v>
@@ -35919,24 +35941,25 @@
         <v>2233</v>
       </c>
       <c r="G704" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="H704" t="s">
         <v>462</v>
       </c>
       <c r="I704" t="s">
+        <v>3411</v>
+      </c>
+      <c r="J704" t="s">
         <v>3412</v>
       </c>
-      <c r="J704" t="s">
-        <v>3413</v>
-      </c>
       <c r="K704" t="s">
-        <v>3411</v>
+        <v>3410</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -35961,7 +35984,7 @@
         <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>3417</v>
+        <v>3416</v>
       </c>
       <c r="C1" s="1">
         <v>43662.4375</v>
@@ -35992,34 +36015,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
     </row>
   </sheetData>
